--- a/lycee_java/project/Gantt.xlsx
+++ b/lycee_java/project/Gantt.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AB3390-3AA9-48E1-ADA8-D7AC5BDCE4B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C52A095-357B-47BF-BE72-AD6C94017EAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -167,9 +167,6 @@
     <t>Gestion des classes par professeurs</t>
   </si>
   <si>
-    <t>Gestion des absences et retard des étudiants</t>
-  </si>
-  <si>
     <t>Gestion des sanctions</t>
   </si>
   <si>
@@ -180,6 +177,15 @@
   </si>
   <si>
     <t>QUENTIN</t>
+  </si>
+  <si>
+    <t>AMINE</t>
+  </si>
+  <si>
+    <t>AMINE/QUENTIN</t>
+  </si>
+  <si>
+    <t>Gestion des absences et retard des étudiants AVEC FORMULAIRE</t>
   </si>
 </sst>
 </file>
@@ -2172,8 +2178,8 @@
   </sheetPr>
   <dimension ref="A1:BK25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3127,7 +3133,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="22">
         <v>0.3</v>
@@ -3370,10 +3376,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="22">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="23">
         <v>44207</v>
@@ -3859,7 +3865,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="22">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="42">
@@ -4331,9 +4337,11 @@
       <c r="B14" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="D14" s="22">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="42">
@@ -4570,7 +4578,9 @@
       <c r="B15" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="25" t="s">
+        <v>40</v>
+      </c>
       <c r="D15" s="22">
         <v>0</v>
       </c>
@@ -4809,7 +4819,9 @@
       <c r="B16" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="D16" s="22">
         <v>0</v>
       </c>
@@ -5048,7 +5060,9 @@
       <c r="B17" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>41</v>
+      </c>
       <c r="D17" s="22">
         <v>0</v>
       </c>
@@ -5287,7 +5301,9 @@
       <c r="B18" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="D18" s="22">
         <v>0</v>
       </c>
@@ -5358,7 +5374,9 @@
       <c r="B19" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="25" t="s">
+        <v>40</v>
+      </c>
       <c r="D19" s="22">
         <v>0</v>
       </c>
@@ -5427,9 +5445,11 @@
     <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="11"/>
       <c r="B20" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="D20" s="22">
         <v>0</v>
       </c>
@@ -5501,9 +5521,11 @@
     <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="11"/>
       <c r="B21" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="25"/>
+        <v>37</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>41</v>
+      </c>
       <c r="D21" s="22">
         <v>0</v>
       </c>
@@ -5572,7 +5594,7 @@
     <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="11"/>
       <c r="B22" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="22">

--- a/lycee_java/project/Gantt.xlsx
+++ b/lycee_java/project/Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C52A095-357B-47BF-BE72-AD6C94017EAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E3AC88-C7A3-4EFF-8754-4234912B0D3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2179,7 +2179,7 @@
   <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3136,18 +3136,18 @@
         <v>39</v>
       </c>
       <c r="D9" s="22">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E9" s="23">
         <v>44200</v>
       </c>
       <c r="F9" s="42">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G9" s="18"/>
-      <c r="H9" s="26">
+      <c r="H9" s="26" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I9" s="26" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
@@ -3379,13 +3379,13 @@
         <v>40</v>
       </c>
       <c r="D10" s="22">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="E10" s="23">
         <v>44207</v>
       </c>
       <c r="F10" s="42">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="26" t="str">
@@ -3416,9 +3416,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="26" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P10" s="47" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
@@ -3865,11 +3865,13 @@
         <v>25</v>
       </c>
       <c r="D12" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="E12" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="23">
+        <v>44222</v>
+      </c>
       <c r="F12" s="42">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="47" t="str">
@@ -4343,9 +4345,11 @@
       <c r="D14" s="22">
         <v>0.7</v>
       </c>
-      <c r="E14" s="23"/>
+      <c r="E14" s="23">
+        <v>44222</v>
+      </c>
       <c r="F14" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="26" t="str">
@@ -4436,9 +4440,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD14" s="26" t="str">
+      <c r="AD14" s="26">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AE14" s="26" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
@@ -4582,11 +4586,13 @@
         <v>40</v>
       </c>
       <c r="D15" s="22">
-        <v>0</v>
-      </c>
-      <c r="E15" s="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="23">
+        <v>44222</v>
+      </c>
       <c r="F15" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="26" t="str">
@@ -4677,9 +4683,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD15" s="26" t="str">
+      <c r="AD15" s="26">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AE15" s="26" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>

--- a/lycee_java/project/Gantt.xlsx
+++ b/lycee_java/project/Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E3AC88-C7A3-4EFF-8754-4234912B0D3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38664446-BDF6-4501-8A03-E887555E3BC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -1827,7 +1827,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="9"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2178,8 +2178,8 @@
   </sheetPr>
   <dimension ref="A1:BK25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="D3" s="56"/>
       <c r="E3" s="33">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H3" s="40"/>
       <c r="I3" s="41"/>
@@ -2299,7 +2299,7 @@
       <c r="AB4" s="16"/>
       <c r="AC4" s="16" t="str">
         <f ca="1">IF(OR(TEXT(AC5,"mmmm")=V4,TEXT(AC5,"mmmm")=O4,TEXT(AC5,"mmmm")=H4),"",TEXT(AC5,"mmmm"))</f>
-        <v/>
+        <v>février</v>
       </c>
       <c r="AD4" s="16"/>
       <c r="AE4" s="16"/>
@@ -2309,7 +2309,7 @@
       <c r="AI4" s="16"/>
       <c r="AJ4" s="16" t="str">
         <f ca="1">IF(OR(TEXT(AJ5,"mmmm")=AC4,TEXT(AJ5,"mmmm")=V4,TEXT(AJ5,"mmmm")=O4,TEXT(AJ5,"mmmm")=H4),"",TEXT(AJ5,"mmmm"))</f>
-        <v>février</v>
+        <v/>
       </c>
       <c r="AK4" s="16"/>
       <c r="AL4" s="16"/>
@@ -2339,7 +2339,7 @@
       <c r="BD4" s="16"/>
       <c r="BE4" s="16" t="str">
         <f ca="1">IF(OR(TEXT(BE5,"mmmm")=AX4,TEXT(BE5,"mmmm")=AQ4,TEXT(BE5,"mmmm")=AJ4,TEXT(BE5,"mmmm")=AC4),"",TEXT(BE5,"mmmm"))</f>
-        <v/>
+        <v>mars</v>
       </c>
       <c r="BF4" s="16"/>
       <c r="BG4" s="16"/>
@@ -2356,227 +2356,227 @@
       <c r="G5" s="29"/>
       <c r="H5" s="43">
         <f ca="1">IFERROR(Début_Projet+Incrément_Défilement,TODAY())</f>
-        <v>44200</v>
+        <v>44209</v>
       </c>
       <c r="I5" s="44">
         <f ca="1">H5+1</f>
-        <v>44201</v>
+        <v>44210</v>
       </c>
       <c r="J5" s="45">
         <f t="shared" ref="J5:AW5" ca="1" si="0">I5+1</f>
-        <v>44202</v>
+        <v>44211</v>
       </c>
       <c r="K5" s="45">
         <f ca="1">J5+1</f>
-        <v>44203</v>
+        <v>44212</v>
       </c>
       <c r="L5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44204</v>
+        <v>44213</v>
       </c>
       <c r="M5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44205</v>
+        <v>44214</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44206</v>
+        <v>44215</v>
       </c>
       <c r="O5" s="45">
         <f ca="1">N5+1</f>
-        <v>44207</v>
+        <v>44216</v>
       </c>
       <c r="P5" s="45">
         <f ca="1">O5+1</f>
-        <v>44208</v>
+        <v>44217</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44209</v>
+        <v>44218</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44210</v>
+        <v>44219</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44211</v>
+        <v>44220</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44212</v>
+        <v>44221</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44213</v>
+        <v>44222</v>
       </c>
       <c r="V5" s="45">
         <f ca="1">U5+1</f>
-        <v>44214</v>
+        <v>44223</v>
       </c>
       <c r="W5" s="45">
         <f ca="1">V5+1</f>
-        <v>44215</v>
+        <v>44224</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44216</v>
+        <v>44225</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44217</v>
+        <v>44226</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44218</v>
+        <v>44227</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44219</v>
+        <v>44228</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44220</v>
+        <v>44229</v>
       </c>
       <c r="AC5" s="45">
         <f ca="1">AB5+1</f>
-        <v>44221</v>
+        <v>44230</v>
       </c>
       <c r="AD5" s="45">
         <f ca="1">AC5+1</f>
-        <v>44222</v>
+        <v>44231</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44223</v>
+        <v>44232</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44224</v>
+        <v>44233</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44225</v>
+        <v>44234</v>
       </c>
       <c r="AH5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44226</v>
+        <v>44235</v>
       </c>
       <c r="AI5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44227</v>
+        <v>44236</v>
       </c>
       <c r="AJ5" s="45">
         <f ca="1">AI5+1</f>
-        <v>44228</v>
+        <v>44237</v>
       </c>
       <c r="AK5" s="45">
         <f ca="1">AJ5+1</f>
-        <v>44229</v>
+        <v>44238</v>
       </c>
       <c r="AL5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44230</v>
+        <v>44239</v>
       </c>
       <c r="AM5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44231</v>
+        <v>44240</v>
       </c>
       <c r="AN5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44232</v>
+        <v>44241</v>
       </c>
       <c r="AO5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44233</v>
+        <v>44242</v>
       </c>
       <c r="AP5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44234</v>
+        <v>44243</v>
       </c>
       <c r="AQ5" s="45">
         <f ca="1">AP5+1</f>
-        <v>44235</v>
+        <v>44244</v>
       </c>
       <c r="AR5" s="45">
         <f ca="1">AQ5+1</f>
-        <v>44236</v>
+        <v>44245</v>
       </c>
       <c r="AS5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44237</v>
+        <v>44246</v>
       </c>
       <c r="AT5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44238</v>
+        <v>44247</v>
       </c>
       <c r="AU5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44239</v>
+        <v>44248</v>
       </c>
       <c r="AV5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44240</v>
+        <v>44249</v>
       </c>
       <c r="AW5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44241</v>
+        <v>44250</v>
       </c>
       <c r="AX5" s="45">
         <f ca="1">AW5+1</f>
-        <v>44242</v>
+        <v>44251</v>
       </c>
       <c r="AY5" s="45">
         <f ca="1">AX5+1</f>
-        <v>44243</v>
+        <v>44252</v>
       </c>
       <c r="AZ5" s="45">
         <f t="shared" ref="AZ5:BD5" ca="1" si="1">AY5+1</f>
-        <v>44244</v>
+        <v>44253</v>
       </c>
       <c r="BA5" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>44245</v>
+        <v>44254</v>
       </c>
       <c r="BB5" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>44246</v>
+        <v>44255</v>
       </c>
       <c r="BC5" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>44247</v>
+        <v>44256</v>
       </c>
       <c r="BD5" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>44248</v>
+        <v>44257</v>
       </c>
       <c r="BE5" s="45">
         <f ca="1">BD5+1</f>
-        <v>44249</v>
+        <v>44258</v>
       </c>
       <c r="BF5" s="45">
         <f ca="1">BE5+1</f>
-        <v>44250</v>
+        <v>44259</v>
       </c>
       <c r="BG5" s="45">
         <f t="shared" ref="BG5:BK5" ca="1" si="2">BF5+1</f>
-        <v>44251</v>
+        <v>44260</v>
       </c>
       <c r="BH5" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>44252</v>
+        <v>44261</v>
       </c>
       <c r="BI5" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>44253</v>
+        <v>44262</v>
       </c>
       <c r="BJ5" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>44254</v>
+        <v>44263</v>
       </c>
       <c r="BK5" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>44255</v>
+        <v>44264</v>
       </c>
     </row>
     <row r="6" spans="1:63" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2601,227 +2601,227 @@
       <c r="G6" s="19"/>
       <c r="H6" s="36" t="str">
         <f t="shared" ref="H6:AM6" ca="1" si="3">LEFT(TEXT(H5,"jjj"),1)</f>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="I6" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="J6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="K6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="L6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="M6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="N6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="O6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="P6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="Q6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="R6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="S6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="T6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="U6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="V6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="W6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="X6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="Y6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="Z6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="AA6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="AB6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AC6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="AD6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AE6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AF6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="AG6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="AH6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="AI6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AJ6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="AK6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AL6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AM6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="AN6" s="38" t="str">
         <f t="shared" ref="AN6:BK6" ca="1" si="4">LEFT(TEXT(AN5,"jjj"),1)</f>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="AO6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="AP6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AQ6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="AR6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AS6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AT6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="AU6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="AV6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="AW6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AX6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="AY6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AZ6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="BA6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="BB6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="BC6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="BD6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="BE6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="BF6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="BG6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="BH6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="BI6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="BJ6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="BK6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>m</v>
       </c>
     </row>
     <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -3142,7 +3142,7 @@
         <v>44200</v>
       </c>
       <c r="F9" s="42">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="26" t="str">
@@ -3631,9 +3631,9 @@
         <v>1</v>
       </c>
       <c r="G11" s="18"/>
-      <c r="H11" s="26">
+      <c r="H11" s="26" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I11" s="47" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
@@ -3868,10 +3868,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="23">
-        <v>44222</v>
+        <v>44200</v>
       </c>
       <c r="F12" s="42">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="47" t="str">
@@ -4404,9 +4404,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U14" s="47" t="str">
+      <c r="U14" s="47">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="V14" s="47" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
@@ -4440,9 +4440,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD14" s="26">
+      <c r="AD14" s="26" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AE14" s="26" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
@@ -4647,9 +4647,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U15" s="47" t="str">
+      <c r="U15" s="47">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="V15" s="47" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
@@ -4683,9 +4683,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD15" s="26">
+      <c r="AD15" s="26" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AE15" s="26" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
@@ -5602,7 +5602,9 @@
       <c r="B22" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="25" t="s">
+        <v>40</v>
+      </c>
       <c r="D22" s="22">
         <v>0</v>
       </c>
@@ -5673,7 +5675,9 @@
       <c r="B23" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="25" t="s">
+        <v>41</v>
+      </c>
       <c r="D23" s="22">
         <v>0</v>
       </c>

--- a/lycee_java/project/Gantt.xlsx
+++ b/lycee_java/project/Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38664446-BDF6-4501-8A03-E887555E3BC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5942FD3F-0A2F-4BC5-8EFB-2694AD84BF4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -170,9 +170,6 @@
     <t>Gestion des sanctions</t>
   </si>
   <si>
-    <t>Rédation documentation</t>
-  </si>
-  <si>
     <t>QUENTIN &amp; AMINE</t>
   </si>
   <si>
@@ -186,6 +183,12 @@
   </si>
   <si>
     <t>Gestion des absences et retard des étudiants AVEC FORMULAIRE</t>
+  </si>
+  <si>
+    <t>QUENTIN / LOIC</t>
+  </si>
+  <si>
+    <t>Rédation documentation développeur</t>
   </si>
 </sst>
 </file>
@@ -1827,7 +1830,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="9"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="13"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2178,8 +2181,8 @@
   </sheetPr>
   <dimension ref="A1:BK25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2242,7 +2245,7 @@
       </c>
       <c r="D3" s="56"/>
       <c r="E3" s="33">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H3" s="40"/>
       <c r="I3" s="41"/>
@@ -2356,227 +2359,227 @@
       <c r="G5" s="29"/>
       <c r="H5" s="43">
         <f ca="1">IFERROR(Début_Projet+Incrément_Défilement,TODAY())</f>
-        <v>44209</v>
+        <v>44213</v>
       </c>
       <c r="I5" s="44">
         <f ca="1">H5+1</f>
-        <v>44210</v>
+        <v>44214</v>
       </c>
       <c r="J5" s="45">
         <f t="shared" ref="J5:AW5" ca="1" si="0">I5+1</f>
-        <v>44211</v>
+        <v>44215</v>
       </c>
       <c r="K5" s="45">
         <f ca="1">J5+1</f>
-        <v>44212</v>
+        <v>44216</v>
       </c>
       <c r="L5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44213</v>
+        <v>44217</v>
       </c>
       <c r="M5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44214</v>
+        <v>44218</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44215</v>
+        <v>44219</v>
       </c>
       <c r="O5" s="45">
         <f ca="1">N5+1</f>
-        <v>44216</v>
+        <v>44220</v>
       </c>
       <c r="P5" s="45">
         <f ca="1">O5+1</f>
-        <v>44217</v>
+        <v>44221</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44218</v>
+        <v>44222</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44219</v>
+        <v>44223</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44220</v>
+        <v>44224</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44221</v>
+        <v>44225</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44222</v>
+        <v>44226</v>
       </c>
       <c r="V5" s="45">
         <f ca="1">U5+1</f>
-        <v>44223</v>
+        <v>44227</v>
       </c>
       <c r="W5" s="45">
         <f ca="1">V5+1</f>
-        <v>44224</v>
+        <v>44228</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44225</v>
+        <v>44229</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44226</v>
+        <v>44230</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44227</v>
+        <v>44231</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44228</v>
+        <v>44232</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44229</v>
+        <v>44233</v>
       </c>
       <c r="AC5" s="45">
         <f ca="1">AB5+1</f>
-        <v>44230</v>
+        <v>44234</v>
       </c>
       <c r="AD5" s="45">
         <f ca="1">AC5+1</f>
-        <v>44231</v>
+        <v>44235</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44232</v>
+        <v>44236</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44233</v>
+        <v>44237</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44234</v>
+        <v>44238</v>
       </c>
       <c r="AH5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44235</v>
+        <v>44239</v>
       </c>
       <c r="AI5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44236</v>
+        <v>44240</v>
       </c>
       <c r="AJ5" s="45">
         <f ca="1">AI5+1</f>
-        <v>44237</v>
+        <v>44241</v>
       </c>
       <c r="AK5" s="45">
         <f ca="1">AJ5+1</f>
-        <v>44238</v>
+        <v>44242</v>
       </c>
       <c r="AL5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44239</v>
+        <v>44243</v>
       </c>
       <c r="AM5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44240</v>
+        <v>44244</v>
       </c>
       <c r="AN5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44241</v>
+        <v>44245</v>
       </c>
       <c r="AO5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44242</v>
+        <v>44246</v>
       </c>
       <c r="AP5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44243</v>
+        <v>44247</v>
       </c>
       <c r="AQ5" s="45">
         <f ca="1">AP5+1</f>
-        <v>44244</v>
+        <v>44248</v>
       </c>
       <c r="AR5" s="45">
         <f ca="1">AQ5+1</f>
-        <v>44245</v>
+        <v>44249</v>
       </c>
       <c r="AS5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44246</v>
+        <v>44250</v>
       </c>
       <c r="AT5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44247</v>
+        <v>44251</v>
       </c>
       <c r="AU5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44248</v>
+        <v>44252</v>
       </c>
       <c r="AV5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44249</v>
+        <v>44253</v>
       </c>
       <c r="AW5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44250</v>
+        <v>44254</v>
       </c>
       <c r="AX5" s="45">
         <f ca="1">AW5+1</f>
-        <v>44251</v>
+        <v>44255</v>
       </c>
       <c r="AY5" s="45">
         <f ca="1">AX5+1</f>
-        <v>44252</v>
+        <v>44256</v>
       </c>
       <c r="AZ5" s="45">
         <f t="shared" ref="AZ5:BD5" ca="1" si="1">AY5+1</f>
-        <v>44253</v>
+        <v>44257</v>
       </c>
       <c r="BA5" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>44254</v>
+        <v>44258</v>
       </c>
       <c r="BB5" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>44255</v>
+        <v>44259</v>
       </c>
       <c r="BC5" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>44256</v>
+        <v>44260</v>
       </c>
       <c r="BD5" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>44257</v>
+        <v>44261</v>
       </c>
       <c r="BE5" s="45">
         <f ca="1">BD5+1</f>
-        <v>44258</v>
+        <v>44262</v>
       </c>
       <c r="BF5" s="45">
         <f ca="1">BE5+1</f>
-        <v>44259</v>
+        <v>44263</v>
       </c>
       <c r="BG5" s="45">
         <f t="shared" ref="BG5:BK5" ca="1" si="2">BF5+1</f>
-        <v>44260</v>
+        <v>44264</v>
       </c>
       <c r="BH5" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>44261</v>
+        <v>44265</v>
       </c>
       <c r="BI5" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>44262</v>
+        <v>44266</v>
       </c>
       <c r="BJ5" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>44263</v>
+        <v>44267</v>
       </c>
       <c r="BK5" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>44264</v>
+        <v>44268</v>
       </c>
     </row>
     <row r="6" spans="1:63" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2601,227 +2604,227 @@
       <c r="G6" s="19"/>
       <c r="H6" s="36" t="str">
         <f t="shared" ref="H6:AM6" ca="1" si="3">LEFT(TEXT(H5,"jjj"),1)</f>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="I6" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="J6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="K6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="L6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="M6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="N6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="O6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="P6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="Q6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="R6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="S6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="T6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="U6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="V6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="W6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="X6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="Y6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="Z6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AA6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AB6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AC6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AD6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AE6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AF6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AG6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AH6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AI6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AJ6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AK6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AL6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AM6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AN6" s="38" t="str">
         <f t="shared" ref="AN6:BK6" ca="1" si="4">LEFT(TEXT(AN5,"jjj"),1)</f>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AO6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AP6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AQ6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AR6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AS6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AT6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AU6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AV6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AW6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AX6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AY6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AZ6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="BA6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="BB6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="BC6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="BD6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="BE6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="BF6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="BG6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="BH6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="BI6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="BJ6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="BK6" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>s</v>
       </c>
     </row>
     <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -3133,10 +3136,10 @@
         <v>30</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="22">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E9" s="23">
         <v>44200</v>
@@ -3376,7 +3379,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="22">
         <v>0.8</v>
@@ -3385,7 +3388,7 @@
         <v>44207</v>
       </c>
       <c r="F10" s="42">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="26" t="str">
@@ -4343,13 +4346,13 @@
         <v>25</v>
       </c>
       <c r="D14" s="22">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E14" s="23">
         <v>44222</v>
       </c>
       <c r="F14" s="42">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="26" t="str">
@@ -4404,9 +4407,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U14" s="47">
+      <c r="U14" s="47" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="V14" s="47" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
@@ -4583,16 +4586,16 @@
         <v>33</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E15" s="23">
         <v>44222</v>
       </c>
       <c r="F15" s="42">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="26" t="str">
@@ -4647,9 +4650,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U15" s="47">
+      <c r="U15" s="47" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="V15" s="47" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
@@ -5067,7 +5070,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="22">
         <v>0</v>
@@ -5311,11 +5314,13 @@
         <v>25</v>
       </c>
       <c r="D18" s="22">
-        <v>0</v>
-      </c>
-      <c r="E18" s="23"/>
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="23">
+        <v>44228</v>
+      </c>
       <c r="F18" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="26"/>
@@ -5381,14 +5386,16 @@
         <v>36</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D19" s="22">
-        <v>0</v>
-      </c>
-      <c r="E19" s="23"/>
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="23">
+        <v>44228</v>
+      </c>
       <c r="F19" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="26"/>
@@ -5451,14 +5458,12 @@
     <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="11"/>
       <c r="B20" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="22">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D20" s="22"/>
       <c r="E20" s="23"/>
       <c r="F20" s="42">
         <v>0</v>
@@ -5530,14 +5535,16 @@
         <v>37</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="22">
-        <v>0</v>
-      </c>
-      <c r="E21" s="23"/>
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="23">
+        <v>44228</v>
+      </c>
       <c r="F21" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="26"/>
@@ -5600,10 +5607,10 @@
     <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="11"/>
       <c r="B22" s="48" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="22">
         <v>0</v>
@@ -5676,7 +5683,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="22">
         <v>0</v>

--- a/lycee_java/project/Gantt.xlsx
+++ b/lycee_java/project/Gantt.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5942FD3F-0A2F-4BC5-8EFB-2694AD84BF4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="20720" windowHeight="13280" tabRatio="415"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <definedName name="Incrément_Défilement">Gantt!$E$3</definedName>
     <definedName name="Marqueur_Jalon">Gantt!$E$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -194,7 +193,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1179,7 +1178,7 @@
     <cellStyle name="Avertissement" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Date" xfId="9"/>
     <cellStyle name="Entrée" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="16" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1201,7 +1200,7 @@
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="25" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
   <dxfs count="33">
     <dxf>
@@ -1733,12 +1732,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3">
       <tableStyleElement type="wholeTable" dxfId="32"/>
       <tableStyleElement type="headerRow" dxfId="31"/>
       <tableStyleElement type="firstRowStripe" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="ToDoList" pivot="0" count="9">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
@@ -1842,11 +1841,11 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>33338</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>185738</xdr:colOff>
+          <xdr:colOff>184150</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -1889,8 +1888,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F23" totalsRowShown="0">
-  <autoFilter ref="B6:F23" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F23" totalsRowShown="0">
+  <autoFilter ref="B6:F23">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1898,11 +1897,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
+    <tableColumn id="1" name="Description du jalon" dataDxfId="0"/>
+    <tableColumn id="3" name="Affecté à"/>
+    <tableColumn id="4" name="Avancement"/>
+    <tableColumn id="5" name="Début"/>
+    <tableColumn id="6" name="Nombre de jours"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -2175,30 +2174,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="C5" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="26.73046875" customWidth="1"/>
-    <col min="3" max="3" width="20.53125" customWidth="1"/>
-    <col min="4" max="4" width="12.796875" customWidth="1"/>
-    <col min="5" max="5" width="10.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="2.73046875" customWidth="1"/>
-    <col min="8" max="63" width="3.53125" customWidth="1"/>
-    <col min="68" max="69" width="10.265625"/>
+    <col min="7" max="7" width="2.7265625" customWidth="1"/>
+    <col min="8" max="63" width="3.54296875" customWidth="1"/>
+    <col min="68" max="69" width="10.26953125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="50.25" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:63" ht="50.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2211,7 +2210,7 @@
       <c r="I1" s="17"/>
       <c r="AF1" s="17"/>
     </row>
-    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -2233,7 +2232,7 @@
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
     </row>
-    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -2254,7 +2253,7 @@
       <c r="L3" s="41"/>
       <c r="M3" s="40"/>
     </row>
-    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -2351,7 +2350,7 @@
       <c r="BJ4" s="16"/>
       <c r="BK4" s="16"/>
     </row>
-    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>44268</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:63" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
@@ -2827,7 +2826,7 @@
         <v>s</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -2893,7 +2892,7 @@
       <c r="BJ7" s="35"/>
       <c r="BK7" s="35"/>
     </row>
-    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -3130,7 +3129,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="51" t="s">
         <v>30</v>
@@ -3153,51 +3152,51 @@
         <v/>
       </c>
       <c r="I9" s="26" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Description du jalon]])=0,"",IF(AND(I$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J9" s="26" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Affecté à]])=0,"",IF(AND(J$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K9" s="26" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L9" s="47" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M9" s="47" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Avancement]])=0,"",IF(AND(K$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L9" s="26" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Début]])=0,"",IF(AND(L$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M9" s="26" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N9" s="47" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O9" s="47" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P9" s="47" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q9" s="47" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R9" s="47" t="str">
+      <c r="N9" s="26" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Description du jalon]])=0,"",IF(AND(N$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O9" s="26" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Affecté à]])=0,"",IF(AND(O$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P9" s="26" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Avancement]])=0,"",IF(AND(P$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q9" s="26" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Début]])=0,"",IF(AND(Q$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R9" s="26" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S9" s="47" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T9" s="47" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
+      <c r="S9" s="26" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Description du jalon]])=0,"",IF(AND(S$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T9" s="26" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Affecté à]])=0,"",IF(AND(T$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U9" s="47" t="str">
@@ -3373,7 +3372,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="51" t="s">
         <v>20</v>
@@ -3400,19 +3399,19 @@
         <v/>
       </c>
       <c r="J10" s="26" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Description du jalon]])=0,"",IF(AND(J$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K10" s="26" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L10" s="47" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M10" s="47" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Affecté à]])=0,"",IF(AND(K$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L10" s="26" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Avancement]])=0,"",IF(AND(L$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M10" s="26" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Début]])=0,"",IF(AND(M$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N10" s="47" t="str">
@@ -3616,7 +3615,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="51" t="s">
         <v>31</v>
@@ -3638,80 +3637,80 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I11" s="47" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J11" s="47" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K11" s="47" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L11" s="47" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M11" s="47" t="str">
+      <c r="I11" s="26" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Description du jalon]])=0,"",IF(AND(I$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J11" s="26" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Affecté à]])=0,"",IF(AND(J$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K11" s="26" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Avancement]])=0,"",IF(AND(K$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L11" s="26" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Début]])=0,"",IF(AND(L$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M11" s="26" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N11" s="47" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O11" s="47" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P11" s="47" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q11" s="47" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R11" s="47" t="str">
+      <c r="N11" s="26" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Description du jalon]])=0,"",IF(AND(N$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O11" s="26" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Affecté à]])=0,"",IF(AND(O$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P11" s="26" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Avancement]])=0,"",IF(AND(P$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q11" s="26" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Début]])=0,"",IF(AND(Q$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R11" s="26" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S11" s="47" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T11" s="47" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U11" s="47" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V11" s="47" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W11" s="47" t="str">
+      <c r="S11" s="26" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Description du jalon]])=0,"",IF(AND(S$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T11" s="26" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Affecté à]])=0,"",IF(AND(T$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U11" s="26" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Avancement]])=0,"",IF(AND(U$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V11" s="26" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Début]])=0,"",IF(AND(V$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W11" s="26" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X11" s="47" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
+      <c r="X11" s="26" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Description du jalon]])=0,"",IF(AND(X$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y11" s="26" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Affecté à]])=0,"",IF(AND(Y$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z11" s="26" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Avancement]])=0,"",IF(AND(Z$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA11" s="26" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Début]])=0,"",IF(AND(AA$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB11" s="26" t="str">
@@ -3719,7 +3718,7 @@
         <v/>
       </c>
       <c r="AC11" s="26" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Description du jalon]])=0,"",IF(AND(AC$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD11" s="26" t="str">
@@ -3859,7 +3858,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="51" t="s">
         <v>21</v>
@@ -4102,7 +4101,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="53" t="s">
         <v>32</v>
@@ -4337,7 +4336,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="51" t="s">
         <v>22</v>
@@ -4580,7 +4579,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="50" t="s">
         <v>33</v>
@@ -4823,7 +4822,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="50" t="s">
         <v>23</v>
@@ -5064,7 +5063,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="50" t="s">
         <v>34</v>
@@ -5305,7 +5304,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="50" t="s">
         <v>35</v>
@@ -5380,7 +5379,7 @@
       <c r="BJ18" s="26"/>
       <c r="BK18" s="26"/>
     </row>
-    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="49" t="s">
         <v>36</v>
@@ -5455,7 +5454,7 @@
       <c r="BJ19" s="26"/>
       <c r="BK19" s="26"/>
     </row>
-    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="48" t="s">
         <v>42</v>
@@ -5529,7 +5528,7 @@
       <c r="BJ20" s="26"/>
       <c r="BK20" s="26"/>
     </row>
-    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="48" t="s">
         <v>37</v>
@@ -5604,7 +5603,7 @@
       <c r="BJ21" s="26"/>
       <c r="BK21" s="26"/>
     </row>
-    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="48" t="s">
         <v>44</v>
@@ -5677,7 +5676,7 @@
       <c r="BJ22" s="26"/>
       <c r="BK22" s="26"/>
     </row>
-    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="50" t="s">
         <v>26</v>
@@ -5750,11 +5749,11 @@
       <c r="BJ23" s="26"/>
       <c r="BK23" s="26"/>
     </row>
-    <row r="24" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C24" s="4"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="5"/>
     </row>
   </sheetData>
@@ -5879,7 +5878,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5903,11 +5902,11 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>33338</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>185738</xdr:colOff>
+                    <xdr:colOff>184150</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>342900</xdr:rowOff>
                   </to>
@@ -5985,35 +5984,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.19921875" style="9" customWidth="1"/>
-    <col min="2" max="16384" width="9.19921875" style="7"/>
+    <col min="1" max="1" width="87.1796875" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="8" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:1" s="8" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="9" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" s="9" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>

--- a/lycee_java/project/Gantt.xlsx
+++ b/lycee_java/project/Gantt.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D4CC68-AF2B-450D-B2B5-24C7767EA20C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="20720" windowHeight="13280" tabRatio="415"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <definedName name="Incrément_Défilement">Gantt!$E$3</definedName>
     <definedName name="Marqueur_Jalon">Gantt!$E$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -193,7 +194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1178,7 +1179,7 @@
     <cellStyle name="Avertissement" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9"/>
+    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Entrée" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="16" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1200,7 +1201,7 @@
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="25" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3"/>
+    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="33">
     <dxf>
@@ -1732,12 +1733,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="32"/>
       <tableStyleElement type="headerRow" dxfId="31"/>
       <tableStyleElement type="firstRowStripe" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9">
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
@@ -1841,11 +1842,11 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>184150</xdr:colOff>
+          <xdr:colOff>185738</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -1888,8 +1889,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F23" totalsRowShown="0">
-  <autoFilter ref="B6:F23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F23" totalsRowShown="0">
+  <autoFilter ref="B6:F23" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1897,11 +1898,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Description du jalon" dataDxfId="0"/>
-    <tableColumn id="3" name="Affecté à"/>
-    <tableColumn id="4" name="Avancement"/>
-    <tableColumn id="5" name="Début"/>
-    <tableColumn id="6" name="Nombre de jours"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -2174,30 +2175,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="C5" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="26.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="26.73046875" customWidth="1"/>
+    <col min="3" max="3" width="20.53125" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" customWidth="1"/>
+    <col min="5" max="5" width="10.46484375" style="3" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="2.7265625" customWidth="1"/>
-    <col min="8" max="63" width="3.54296875" customWidth="1"/>
-    <col min="68" max="69" width="10.26953125"/>
+    <col min="7" max="7" width="2.73046875" customWidth="1"/>
+    <col min="8" max="63" width="3.53125" customWidth="1"/>
+    <col min="68" max="69" width="10.265625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="50.25" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:63" ht="50.25" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2210,7 +2211,7 @@
       <c r="I1" s="17"/>
       <c r="AF1" s="17"/>
     </row>
-    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -2232,7 +2233,7 @@
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
     </row>
-    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -2253,7 +2254,7 @@
       <c r="L3" s="41"/>
       <c r="M3" s="40"/>
     </row>
-    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -2350,7 +2351,7 @@
       <c r="BJ4" s="16"/>
       <c r="BK4" s="16"/>
     </row>
-    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -2581,7 +2582,7 @@
         <v>44268</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:63" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
@@ -2826,7 +2827,7 @@
         <v>s</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -2892,7 +2893,7 @@
       <c r="BJ7" s="35"/>
       <c r="BK7" s="35"/>
     </row>
-    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -3129,7 +3130,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12"/>
       <c r="B9" s="51" t="s">
         <v>30</v>
@@ -3372,7 +3373,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12"/>
       <c r="B10" s="51" t="s">
         <v>20</v>
@@ -3615,7 +3616,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="11"/>
       <c r="B11" s="51" t="s">
         <v>31</v>
@@ -3858,7 +3859,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11"/>
       <c r="B12" s="51" t="s">
         <v>21</v>
@@ -4101,7 +4102,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12"/>
       <c r="B13" s="53" t="s">
         <v>32</v>
@@ -4336,7 +4337,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12"/>
       <c r="B14" s="51" t="s">
         <v>22</v>
@@ -4351,7 +4352,7 @@
         <v>44222</v>
       </c>
       <c r="F14" s="42">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="26" t="str">
@@ -4579,7 +4580,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="11"/>
       <c r="B15" s="50" t="s">
         <v>33</v>
@@ -4588,7 +4589,7 @@
         <v>39</v>
       </c>
       <c r="D15" s="22">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="E15" s="23">
         <v>44222</v>
@@ -4822,7 +4823,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="11"/>
       <c r="B16" s="50" t="s">
         <v>23</v>
@@ -4831,11 +4832,13 @@
         <v>25</v>
       </c>
       <c r="D16" s="22">
-        <v>0</v>
-      </c>
-      <c r="E16" s="23"/>
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="23">
+        <v>44235</v>
+      </c>
       <c r="F16" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="26" t="str">
@@ -4926,9 +4929,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD16" s="26" t="str">
+      <c r="AD16" s="26">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AE16" s="26" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
@@ -5063,7 +5066,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="11"/>
       <c r="B17" s="50" t="s">
         <v>34</v>
@@ -5304,7 +5307,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="11"/>
       <c r="B18" s="50" t="s">
         <v>35</v>
@@ -5313,13 +5316,13 @@
         <v>25</v>
       </c>
       <c r="D18" s="22">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="E18" s="23">
         <v>44228</v>
       </c>
       <c r="F18" s="42">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="26"/>
@@ -5379,7 +5382,7 @@
       <c r="BJ18" s="26"/>
       <c r="BK18" s="26"/>
     </row>
-    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="11"/>
       <c r="B19" s="49" t="s">
         <v>36</v>
@@ -5454,7 +5457,7 @@
       <c r="BJ19" s="26"/>
       <c r="BK19" s="26"/>
     </row>
-    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="11"/>
       <c r="B20" s="48" t="s">
         <v>42</v>
@@ -5462,10 +5465,14 @@
       <c r="C20" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
+      <c r="D20" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="23">
+        <v>44235</v>
+      </c>
       <c r="F20" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="26"/>
@@ -5528,7 +5535,7 @@
       <c r="BJ20" s="26"/>
       <c r="BK20" s="26"/>
     </row>
-    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="11"/>
       <c r="B21" s="48" t="s">
         <v>37</v>
@@ -5537,13 +5544,13 @@
         <v>40</v>
       </c>
       <c r="D21" s="22">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E21" s="23">
         <v>44228</v>
       </c>
       <c r="F21" s="42">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="26"/>
@@ -5603,7 +5610,7 @@
       <c r="BJ21" s="26"/>
       <c r="BK21" s="26"/>
     </row>
-    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="11"/>
       <c r="B22" s="48" t="s">
         <v>44</v>
@@ -5676,7 +5683,7 @@
       <c r="BJ22" s="26"/>
       <c r="BK22" s="26"/>
     </row>
-    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="11"/>
       <c r="B23" s="50" t="s">
         <v>26</v>
@@ -5749,11 +5756,11 @@
       <c r="BJ23" s="26"/>
       <c r="BK23" s="26"/>
     </row>
-    <row r="24" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" s="4"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C25" s="5"/>
     </row>
   </sheetData>
@@ -5878,7 +5885,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5902,11 +5909,11 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>184150</xdr:colOff>
+                    <xdr:colOff>185738</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>342900</xdr:rowOff>
                   </to>
@@ -5984,35 +5991,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="87.1796875" style="9" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="87.19921875" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="9.19921875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="8" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:1" s="8" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="145" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A2" s="28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="9" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" s="9" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>

--- a/lycee_java/project/Gantt.xlsx
+++ b/lycee_java/project/Gantt.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D4CC68-AF2B-450D-B2B5-24C7767EA20C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="20720" windowHeight="13280" tabRatio="415"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <definedName name="Incrément_Défilement">Gantt!$E$3</definedName>
     <definedName name="Marqueur_Jalon">Gantt!$E$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -194,7 +193,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1179,7 +1178,7 @@
     <cellStyle name="Avertissement" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Date" xfId="9"/>
     <cellStyle name="Entrée" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="16" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1201,7 +1200,7 @@
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="25" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
   <dxfs count="33">
     <dxf>
@@ -1733,12 +1732,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3">
       <tableStyleElement type="wholeTable" dxfId="32"/>
       <tableStyleElement type="headerRow" dxfId="31"/>
       <tableStyleElement type="firstRowStripe" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="ToDoList" pivot="0" count="9">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
@@ -1842,11 +1841,11 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>33338</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>185738</xdr:colOff>
+          <xdr:colOff>184150</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -1889,8 +1888,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F23" totalsRowShown="0">
-  <autoFilter ref="B6:F23" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F23" totalsRowShown="0">
+  <autoFilter ref="B6:F23">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1898,11 +1897,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
+    <tableColumn id="1" name="Description du jalon" dataDxfId="0"/>
+    <tableColumn id="3" name="Affecté à"/>
+    <tableColumn id="4" name="Avancement"/>
+    <tableColumn id="5" name="Début"/>
+    <tableColumn id="6" name="Nombre de jours"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -2175,30 +2174,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="26.73046875" customWidth="1"/>
-    <col min="3" max="3" width="20.53125" customWidth="1"/>
-    <col min="4" max="4" width="12.796875" customWidth="1"/>
-    <col min="5" max="5" width="10.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="2.73046875" customWidth="1"/>
-    <col min="8" max="63" width="3.53125" customWidth="1"/>
-    <col min="68" max="69" width="10.265625"/>
+    <col min="7" max="7" width="2.7265625" customWidth="1"/>
+    <col min="8" max="63" width="3.54296875" customWidth="1"/>
+    <col min="68" max="69" width="10.26953125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="50.25" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:63" ht="50.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2211,7 +2210,7 @@
       <c r="I1" s="17"/>
       <c r="AF1" s="17"/>
     </row>
-    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -2233,7 +2232,7 @@
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
     </row>
-    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -2254,7 +2253,7 @@
       <c r="L3" s="41"/>
       <c r="M3" s="40"/>
     </row>
-    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -2351,7 +2350,7 @@
       <c r="BJ4" s="16"/>
       <c r="BK4" s="16"/>
     </row>
-    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>44268</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:63" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
@@ -2827,7 +2826,7 @@
         <v>s</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -2893,7 +2892,7 @@
       <c r="BJ7" s="35"/>
       <c r="BK7" s="35"/>
     </row>
-    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -3130,7 +3129,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="51" t="s">
         <v>30</v>
@@ -3373,7 +3372,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="51" t="s">
         <v>20</v>
@@ -3616,7 +3615,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="51" t="s">
         <v>31</v>
@@ -3859,7 +3858,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="51" t="s">
         <v>21</v>
@@ -4102,7 +4101,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="53" t="s">
         <v>32</v>
@@ -4337,7 +4336,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="51" t="s">
         <v>22</v>
@@ -4580,7 +4579,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="50" t="s">
         <v>33</v>
@@ -4823,7 +4822,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="50" t="s">
         <v>23</v>
@@ -5066,7 +5065,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="50" t="s">
         <v>34</v>
@@ -5307,7 +5306,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="50" t="s">
         <v>35</v>
@@ -5382,7 +5381,7 @@
       <c r="BJ18" s="26"/>
       <c r="BK18" s="26"/>
     </row>
-    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="49" t="s">
         <v>36</v>
@@ -5457,7 +5456,7 @@
       <c r="BJ19" s="26"/>
       <c r="BK19" s="26"/>
     </row>
-    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="48" t="s">
         <v>42</v>
@@ -5535,7 +5534,7 @@
       <c r="BJ20" s="26"/>
       <c r="BK20" s="26"/>
     </row>
-    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="48" t="s">
         <v>37</v>
@@ -5610,7 +5609,7 @@
       <c r="BJ21" s="26"/>
       <c r="BK21" s="26"/>
     </row>
-    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="48" t="s">
         <v>44</v>
@@ -5683,7 +5682,7 @@
       <c r="BJ22" s="26"/>
       <c r="BK22" s="26"/>
     </row>
-    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="50" t="s">
         <v>26</v>
@@ -5756,11 +5755,11 @@
       <c r="BJ23" s="26"/>
       <c r="BK23" s="26"/>
     </row>
-    <row r="24" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C24" s="4"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="5"/>
     </row>
   </sheetData>
@@ -5885,7 +5884,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5909,11 +5908,11 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>33338</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>185738</xdr:colOff>
+                    <xdr:colOff>184150</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>342900</xdr:rowOff>
                   </to>
@@ -5991,35 +5990,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.19921875" style="9" customWidth="1"/>
-    <col min="2" max="16384" width="9.19921875" style="7"/>
+    <col min="1" max="1" width="87.1796875" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="8" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:1" s="8" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="9" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" s="9" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>

--- a/lycee_java/project/Gantt.xlsx
+++ b/lycee_java/project/Gantt.xlsx
@@ -2180,8 +2180,8 @@
   </sheetPr>
   <dimension ref="A1:BK25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3138,7 +3138,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="22">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E9" s="23">
         <v>44200</v>
@@ -5074,7 +5074,7 @@
         <v>40</v>
       </c>
       <c r="D17" s="22">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="42">
@@ -5691,7 +5691,7 @@
         <v>40</v>
       </c>
       <c r="D23" s="22">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="42">

--- a/lycee_java/project/Gantt.xlsx
+++ b/lycee_java/project/Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46383A55-6181-42FB-B1EC-AADECE5F024E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B94A176-4EBD-49B6-A548-5268731369CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -222,7 +222,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="d"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="8" tint="-0.499984740745262"/>
@@ -445,8 +445,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -647,6 +653,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,7 +1007,7 @@
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1134,6 +1146,7 @@
     <xf numFmtId="0" fontId="30" fillId="36" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1152,7 +1165,31 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="37" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="37" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="37" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20 % - Accent1" xfId="27" builtinId="30" customBuiltin="1"/>
@@ -1207,6 +1244,9 @@
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="69">
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1856,9 +1896,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="8" tint="-0.499984740745262"/>
@@ -2481,7 +2518,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="13"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="17"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2549,7 +2586,7 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
@@ -2832,8 +2869,8 @@
   </sheetPr>
   <dimension ref="A1:BK29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="74" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2869,14 +2906,14 @@
       <c r="B2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54">
+      <c r="D2" s="54"/>
+      <c r="E2" s="55">
         <v>44200</v>
       </c>
-      <c r="F2" s="55"/>
+      <c r="F2" s="56"/>
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
@@ -2891,12 +2928,12 @@
       <c r="B3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="53"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="30">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H3" s="37"/>
       <c r="I3" s="38"/>
@@ -2910,10 +2947,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="51"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="57"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="31">
         <v>1</v>
       </c>
@@ -2943,7 +2980,7 @@
       <c r="U4" s="13"/>
       <c r="V4" s="13" t="str">
         <f ca="1">IF(OR(TEXT(V5,"mmmm")=O4,TEXT(V5,"mmmm")=H4),"",TEXT(V5,"mmmm"))</f>
-        <v/>
+        <v>février</v>
       </c>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
@@ -2953,7 +2990,7 @@
       <c r="AB4" s="13"/>
       <c r="AC4" s="13" t="str">
         <f ca="1">IF(OR(TEXT(AC5,"mmmm")=V4,TEXT(AC5,"mmmm")=O4,TEXT(AC5,"mmmm")=H4),"",TEXT(AC5,"mmmm"))</f>
-        <v>février</v>
+        <v/>
       </c>
       <c r="AD4" s="13"/>
       <c r="AE4" s="13"/>
@@ -2983,7 +3020,7 @@
       <c r="AW4" s="13"/>
       <c r="AX4" s="13" t="str">
         <f ca="1">IF(OR(TEXT(AX5,"mmmm")=AQ4,TEXT(AX5,"mmmm")=AJ4,TEXT(AX5,"mmmm")=AC4,TEXT(AX5,"mmmm")=V4),"",TEXT(AX5,"mmmm"))</f>
-        <v/>
+        <v>mars</v>
       </c>
       <c r="AY4" s="13"/>
       <c r="AZ4" s="13"/>
@@ -2993,7 +3030,7 @@
       <c r="BD4" s="13"/>
       <c r="BE4" s="13" t="str">
         <f ca="1">IF(OR(TEXT(BE5,"mmmm")=AX4,TEXT(BE5,"mmmm")=AQ4,TEXT(BE5,"mmmm")=AJ4,TEXT(BE5,"mmmm")=AC4),"",TEXT(BE5,"mmmm"))</f>
-        <v>mars</v>
+        <v/>
       </c>
       <c r="BF4" s="13"/>
       <c r="BG4" s="13"/>
@@ -3010,227 +3047,227 @@
       <c r="G5" s="26"/>
       <c r="H5" s="40">
         <f ca="1">IFERROR(Début_Projet+Incrément_Défilement,TODAY())</f>
-        <v>44213</v>
+        <v>44217</v>
       </c>
       <c r="I5" s="41">
         <f ca="1">H5+1</f>
-        <v>44214</v>
+        <v>44218</v>
       </c>
       <c r="J5" s="42">
         <f t="shared" ref="J5:AW5" ca="1" si="0">I5+1</f>
-        <v>44215</v>
+        <v>44219</v>
       </c>
       <c r="K5" s="42">
         <f ca="1">J5+1</f>
-        <v>44216</v>
+        <v>44220</v>
       </c>
       <c r="L5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44217</v>
+        <v>44221</v>
       </c>
       <c r="M5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44218</v>
+        <v>44222</v>
       </c>
       <c r="N5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44219</v>
+        <v>44223</v>
       </c>
       <c r="O5" s="42">
         <f ca="1">N5+1</f>
-        <v>44220</v>
+        <v>44224</v>
       </c>
       <c r="P5" s="42">
         <f ca="1">O5+1</f>
-        <v>44221</v>
+        <v>44225</v>
       </c>
       <c r="Q5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44222</v>
+        <v>44226</v>
       </c>
       <c r="R5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44223</v>
+        <v>44227</v>
       </c>
       <c r="S5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44224</v>
+        <v>44228</v>
       </c>
       <c r="T5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44225</v>
+        <v>44229</v>
       </c>
       <c r="U5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44226</v>
+        <v>44230</v>
       </c>
       <c r="V5" s="42">
         <f ca="1">U5+1</f>
-        <v>44227</v>
+        <v>44231</v>
       </c>
       <c r="W5" s="42">
         <f ca="1">V5+1</f>
-        <v>44228</v>
+        <v>44232</v>
       </c>
       <c r="X5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44229</v>
+        <v>44233</v>
       </c>
       <c r="Y5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44230</v>
+        <v>44234</v>
       </c>
       <c r="Z5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44231</v>
+        <v>44235</v>
       </c>
       <c r="AA5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44232</v>
+        <v>44236</v>
       </c>
       <c r="AB5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44233</v>
+        <v>44237</v>
       </c>
       <c r="AC5" s="42">
         <f ca="1">AB5+1</f>
-        <v>44234</v>
+        <v>44238</v>
       </c>
       <c r="AD5" s="42">
         <f ca="1">AC5+1</f>
-        <v>44235</v>
+        <v>44239</v>
       </c>
       <c r="AE5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44236</v>
+        <v>44240</v>
       </c>
       <c r="AF5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44237</v>
+        <v>44241</v>
       </c>
       <c r="AG5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44238</v>
+        <v>44242</v>
       </c>
       <c r="AH5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44239</v>
+        <v>44243</v>
       </c>
       <c r="AI5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44240</v>
+        <v>44244</v>
       </c>
       <c r="AJ5" s="42">
         <f ca="1">AI5+1</f>
-        <v>44241</v>
+        <v>44245</v>
       </c>
       <c r="AK5" s="42">
         <f ca="1">AJ5+1</f>
-        <v>44242</v>
+        <v>44246</v>
       </c>
       <c r="AL5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44243</v>
+        <v>44247</v>
       </c>
       <c r="AM5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44244</v>
+        <v>44248</v>
       </c>
       <c r="AN5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44245</v>
+        <v>44249</v>
       </c>
       <c r="AO5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44246</v>
+        <v>44250</v>
       </c>
       <c r="AP5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44247</v>
+        <v>44251</v>
       </c>
       <c r="AQ5" s="42">
         <f ca="1">AP5+1</f>
-        <v>44248</v>
+        <v>44252</v>
       </c>
       <c r="AR5" s="42">
         <f ca="1">AQ5+1</f>
-        <v>44249</v>
+        <v>44253</v>
       </c>
       <c r="AS5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44250</v>
+        <v>44254</v>
       </c>
       <c r="AT5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44251</v>
+        <v>44255</v>
       </c>
       <c r="AU5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44252</v>
+        <v>44256</v>
       </c>
       <c r="AV5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44253</v>
+        <v>44257</v>
       </c>
       <c r="AW5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44254</v>
+        <v>44258</v>
       </c>
       <c r="AX5" s="42">
         <f ca="1">AW5+1</f>
-        <v>44255</v>
+        <v>44259</v>
       </c>
       <c r="AY5" s="42">
         <f ca="1">AX5+1</f>
-        <v>44256</v>
+        <v>44260</v>
       </c>
       <c r="AZ5" s="42">
         <f t="shared" ref="AZ5:BD5" ca="1" si="1">AY5+1</f>
-        <v>44257</v>
+        <v>44261</v>
       </c>
       <c r="BA5" s="42">
         <f t="shared" ca="1" si="1"/>
-        <v>44258</v>
+        <v>44262</v>
       </c>
       <c r="BB5" s="42">
         <f t="shared" ca="1" si="1"/>
-        <v>44259</v>
+        <v>44263</v>
       </c>
       <c r="BC5" s="42">
         <f t="shared" ca="1" si="1"/>
-        <v>44260</v>
+        <v>44264</v>
       </c>
       <c r="BD5" s="42">
         <f t="shared" ca="1" si="1"/>
-        <v>44261</v>
+        <v>44265</v>
       </c>
       <c r="BE5" s="42">
         <f ca="1">BD5+1</f>
-        <v>44262</v>
+        <v>44266</v>
       </c>
       <c r="BF5" s="42">
         <f ca="1">BE5+1</f>
-        <v>44263</v>
+        <v>44267</v>
       </c>
       <c r="BG5" s="42">
         <f t="shared" ref="BG5:BK5" ca="1" si="2">BF5+1</f>
-        <v>44264</v>
+        <v>44268</v>
       </c>
       <c r="BH5" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>44265</v>
+        <v>44269</v>
       </c>
       <c r="BI5" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>44266</v>
+        <v>44270</v>
       </c>
       <c r="BJ5" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>44267</v>
+        <v>44271</v>
       </c>
       <c r="BK5" s="43">
         <f t="shared" ca="1" si="2"/>
-        <v>44268</v>
+        <v>44272</v>
       </c>
     </row>
     <row r="6" spans="1:63" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -3255,227 +3292,227 @@
       <c r="G6" s="16"/>
       <c r="H6" s="33" t="str">
         <f t="shared" ref="H6:AM6" ca="1" si="3">LEFT(TEXT(H5,"jjj"),1)</f>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="I6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="J6" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="K6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="L6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="M6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="N6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="O6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="P6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="Q6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="R6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="S6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="T6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="U6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="V6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="W6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="X6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="Y6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="Z6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AA6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AB6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AC6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AD6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AE6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AF6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AG6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AH6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AI6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AJ6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AK6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AL6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AM6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AN6" s="35" t="str">
         <f t="shared" ref="AN6:BK6" ca="1" si="4">LEFT(TEXT(AN5,"jjj"),1)</f>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AO6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AP6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AQ6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AR6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AS6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AT6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AU6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AV6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AW6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AX6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AY6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AZ6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="BA6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="BB6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="BC6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="BD6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="BE6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="BF6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="BG6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="BH6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="BI6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="BJ6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="BK6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
     </row>
     <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -5717,244 +5754,238 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="9"/>
-      <c r="B17" s="47" t="s">
+    <row r="17" spans="1:63" s="66" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="59"/>
+      <c r="B17" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="19">
-        <v>0.15</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="39">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BK17" s="23" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+      <c r="C17" s="60"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK17" s="65" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
@@ -6042,13 +6073,13 @@
         <v>42</v>
       </c>
       <c r="D19" s="19">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E19" s="20">
         <v>44228</v>
       </c>
       <c r="F19" s="39">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="23"/>
@@ -6117,13 +6148,13 @@
         <v>40</v>
       </c>
       <c r="D20" s="19">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="E20" s="20">
         <v>44235</v>
       </c>
       <c r="F20" s="39">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="23"/>
@@ -6195,13 +6226,13 @@
         <v>40</v>
       </c>
       <c r="D21" s="19">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="E21" s="20">
         <v>44228</v>
       </c>
       <c r="F21" s="39">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="23"/>
@@ -6270,11 +6301,13 @@
         <v>38</v>
       </c>
       <c r="D22" s="19">
-        <v>0.4</v>
-      </c>
-      <c r="E22" s="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="20">
+        <v>44256</v>
+      </c>
       <c r="F22" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="23"/>
@@ -6343,11 +6376,13 @@
         <v>39</v>
       </c>
       <c r="D23" s="19">
-        <v>0.6</v>
-      </c>
-      <c r="E23" s="20"/>
+        <v>0.9</v>
+      </c>
+      <c r="E23" s="20">
+        <v>44249</v>
+      </c>
       <c r="F23" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="23"/>
@@ -6416,11 +6451,13 @@
         <v>51</v>
       </c>
       <c r="D24" s="19">
-        <v>0.9</v>
-      </c>
-      <c r="E24" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="E24" s="20">
+        <v>44249</v>
+      </c>
       <c r="F24" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="23"/>
@@ -6482,7 +6519,7 @@
     </row>
     <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="9"/>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="52" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="22" t="s">
@@ -6495,7 +6532,7 @@
         <v>44242</v>
       </c>
       <c r="F25" s="39">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="23"/>
@@ -6557,16 +6594,20 @@
     </row>
     <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="9"/>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="22"/>
+      <c r="C26" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="D26" s="19">
-        <v>0</v>
-      </c>
-      <c r="E26" s="20"/>
+        <v>0.7</v>
+      </c>
+      <c r="E26" s="20">
+        <v>44256</v>
+      </c>
       <c r="F26" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="23"/>
@@ -6628,16 +6669,20 @@
     </row>
     <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="9"/>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="22"/>
+      <c r="C27" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="D27" s="19">
-        <v>0</v>
-      </c>
-      <c r="E27" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="E27" s="20">
+        <v>44256</v>
+      </c>
       <c r="F27" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="23"/>
@@ -6699,7 +6744,7 @@
     </row>
     <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="9"/>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="52" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="22"/>
@@ -6770,7 +6815,7 @@
     </row>
     <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="9"/>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="52" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="22"/>
@@ -6975,32 +7020,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:BK24">
-    <cfRule type="expression" dxfId="35" priority="42">
+    <cfRule type="expression" dxfId="36" priority="42">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD24 AH24">
-    <cfRule type="expression" dxfId="34" priority="43">
+    <cfRule type="expression" dxfId="35" priority="43">
       <formula>AC$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD24 AH24">
-    <cfRule type="expression" dxfId="33" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="44" stopIfTrue="1">
       <formula>AND(AC$5&gt;=$E20+1,AC$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK24 AN24">
-    <cfRule type="expression" dxfId="32" priority="45">
+    <cfRule type="expression" dxfId="33" priority="45">
       <formula>AH$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK24 AN24">
-    <cfRule type="expression" dxfId="31" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="46" stopIfTrue="1">
       <formula>AND(AH$5&gt;=$E20+1,AH$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:AC24 AE24:AG24 AI24:AJ24 AL24:AM24 AO24:BK24">
-    <cfRule type="expression" dxfId="30" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="47" stopIfTrue="1">
       <formula>AND(H$5&gt;=#REF!+1,H$5&lt;=#REF!+#REF!-2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7019,32 +7064,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:BK25">
-    <cfRule type="expression" dxfId="29" priority="34">
+    <cfRule type="expression" dxfId="30" priority="34">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD25 AH25">
-    <cfRule type="expression" dxfId="28" priority="35">
+    <cfRule type="expression" dxfId="29" priority="35">
       <formula>AC$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD25 AH25">
-    <cfRule type="expression" dxfId="27" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="36" stopIfTrue="1">
       <formula>AND(AC$5&gt;=$E21+1,AC$5&lt;=$E21+$F21-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK25 AN25">
-    <cfRule type="expression" dxfId="26" priority="37">
+    <cfRule type="expression" dxfId="27" priority="37">
       <formula>AH$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK25 AN25">
-    <cfRule type="expression" dxfId="25" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="38" stopIfTrue="1">
       <formula>AND(AH$5&gt;=$E21+1,AH$5&lt;=$E21+$F21-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:AC25 AE25:AG25 AI25:AJ25 AL25:AM25 AO25:BK25">
-    <cfRule type="expression" dxfId="24" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="39" stopIfTrue="1">
       <formula>AND(H$5&gt;=#REF!+1,H$5&lt;=#REF!+#REF!-2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7063,32 +7108,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:BK26">
-    <cfRule type="expression" dxfId="23" priority="26">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD26 AH26">
-    <cfRule type="expression" dxfId="22" priority="27">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>AC$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD26 AH26">
-    <cfRule type="expression" dxfId="21" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="28" stopIfTrue="1">
       <formula>AND(AC$5&gt;=$E22+1,AC$5&lt;=$E22+$F22-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK26 AN26">
-    <cfRule type="expression" dxfId="20" priority="29">
+    <cfRule type="expression" dxfId="21" priority="29">
       <formula>AH$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK26 AN26">
-    <cfRule type="expression" dxfId="19" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="30" stopIfTrue="1">
       <formula>AND(AH$5&gt;=$E22+1,AH$5&lt;=$E22+$F22-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:AC26 AE26:AG26 AI26:AJ26 AL26:AM26 AO26:BK26">
-    <cfRule type="expression" dxfId="18" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="31" stopIfTrue="1">
       <formula>AND(H$5&gt;=#REF!+1,H$5&lt;=#REF!+#REF!-2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7107,32 +7152,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:BK27">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD27 AH27">
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>AC$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD27 AH27">
-    <cfRule type="expression" dxfId="15" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="20" stopIfTrue="1">
       <formula>AND(AC$5&gt;=$E23+1,AC$5&lt;=$E23+$F23-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK27 AN27">
-    <cfRule type="expression" dxfId="14" priority="21">
+    <cfRule type="expression" dxfId="15" priority="21">
       <formula>AH$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK27 AN27">
-    <cfRule type="expression" dxfId="13" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="22" stopIfTrue="1">
       <formula>AND(AH$5&gt;=$E23+1,AH$5&lt;=$E23+$F23-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:AC27 AE27:AG27 AI27:AJ27 AL27:AM27 AO27:BK27">
-    <cfRule type="expression" dxfId="12" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="23" stopIfTrue="1">
       <formula>AND(H$5&gt;=#REF!+1,H$5&lt;=#REF!+#REF!-2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7151,32 +7196,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:BK28">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD28 AH28">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>AC$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD28 AH28">
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
       <formula>AND(AC$5&gt;=$E24+1,AC$5&lt;=$E24+$F24-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK28 AN28">
-    <cfRule type="expression" dxfId="8" priority="13">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>AH$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK28 AN28">
-    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="14" stopIfTrue="1">
       <formula>AND(AH$5&gt;=$E24+1,AH$5&lt;=$E24+$F24-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:AC28 AE28:AG28 AI28:AJ28 AL28:AM28 AO28:BK28">
-    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="15" stopIfTrue="1">
       <formula>AND(H$5&gt;=#REF!+1,H$5&lt;=#REF!+#REF!-2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7195,32 +7240,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:BK29">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD29 AH29">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>AC$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD29 AH29">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>AND(AC$5&gt;=$E25+1,AC$5&lt;=$E25+$F25-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK29 AN29">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>AH$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK29 AN29">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
       <formula>AND(AH$5&gt;=$E25+1,AH$5&lt;=$E25+$F25-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:AC29 AE29:AG29 AI29:AJ29 AL29:AM29 AO29:BK29">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>AND(H$5&gt;=#REF!+1,H$5&lt;=#REF!+#REF!-2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7287,6 +7332,96 @@
           <xm:sqref>D6:D23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0C8A80D3-4263-4341-B478-F7A29FB810BF}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8D37DE8C-0491-4DAA-9AB0-E8F138BCAEE6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AC571418-971B-49CF-85E4-417252928AE6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A48D5574-7779-4233-A710-8BC17F3A61A1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9E354EFA-0A1A-476F-858C-D1AAAFC5245E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{956C7C8E-58DE-4EE4-9F26-1A8CBE04C302}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="57" id="{6C427F2E-2EF5-46B4-BFA6-7C68148277AC}">
             <x14:iconSet iconSet="3Flags" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -7325,21 +7460,6 @@
           <xm:sqref>H7:BK23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0C8A80D3-4263-4341-B478-F7A29FB810BF}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="48" id="{17FB9B06-8D94-4F97-8C3C-DFF27FD67B60}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -7357,21 +7477,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>H24:BK24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8D37DE8C-0491-4DAA-9AB0-E8F138BCAEE6}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="40" id="{D06976C2-013F-4A74-BB89-C941FEC030B6}">
@@ -7393,21 +7498,6 @@
           <xm:sqref>H25:BK25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AC571418-971B-49CF-85E4-417252928AE6}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="32" id="{7DBC1DE0-72E7-43DB-B027-5DF42442AC2B}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -7425,21 +7515,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>H26:BK26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A48D5574-7779-4233-A710-8BC17F3A61A1}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="24" id="{8C68D2C2-A397-4CE6-96D2-2B701E2F69BE}">
@@ -7461,21 +7536,6 @@
           <xm:sqref>H27:BK27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9E354EFA-0A1A-476F-858C-D1AAAFC5245E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="16" id="{A2CDCF23-0F0B-41B1-BA7F-D38A1B1D8956}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -7493,21 +7553,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>H28:BK28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{956C7C8E-58DE-4EE4-9F26-1A8CBE04C302}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="8" id="{6381A33A-E5CE-4D65-B95B-EE38FFAEF8F6}">

--- a/lycee_java/project/Gantt.xlsx
+++ b/lycee_java/project/Gantt.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B94A176-4EBD-49B6-A548-5268731369CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5FD899-ACF5-4A49-8A69-0BA89BF1F47B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1147,24 +1147,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyBorder="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="4" borderId="3" xfId="9" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="4" borderId="4" xfId="9" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="37" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1189,6 +1171,24 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="4" borderId="3" xfId="9" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="4" borderId="4" xfId="9" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2870,7 +2870,7 @@
   <dimension ref="A1:BK29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="74" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2906,14 +2906,14 @@
       <c r="B2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55">
+      <c r="D2" s="63"/>
+      <c r="E2" s="64">
         <v>44200</v>
       </c>
-      <c r="F2" s="56"/>
+      <c r="F2" s="65"/>
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
@@ -2928,10 +2928,10 @@
       <c r="B3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="30">
         <v>17</v>
       </c>
@@ -2947,10 +2947,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="51"/>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="31">
         <v>1</v>
       </c>
@@ -5754,237 +5754,237 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:63" s="66" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="59"/>
-      <c r="B17" s="67" t="s">
+    <row r="17" spans="1:63" s="60" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="53"/>
+      <c r="B17" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="65" t="str">
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I17" s="65" t="str">
+      <c r="I17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J17" s="65" t="str">
+      <c r="J17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K17" s="65" t="str">
+      <c r="K17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L17" s="65" t="str">
+      <c r="L17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M17" s="65" t="str">
+      <c r="M17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N17" s="65" t="str">
+      <c r="N17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O17" s="65" t="str">
+      <c r="O17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P17" s="65" t="str">
+      <c r="P17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q17" s="65" t="str">
+      <c r="Q17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R17" s="65" t="str">
+      <c r="R17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S17" s="65" t="str">
+      <c r="S17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T17" s="65" t="str">
+      <c r="T17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U17" s="65" t="str">
+      <c r="U17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V17" s="65" t="str">
+      <c r="V17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W17" s="65" t="str">
+      <c r="W17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X17" s="65" t="str">
+      <c r="X17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Y17" s="65" t="str">
+      <c r="Y17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Z17" s="65" t="str">
+      <c r="Z17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AA17" s="65" t="str">
+      <c r="AA17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AB17" s="65" t="str">
+      <c r="AB17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AC17" s="65" t="str">
+      <c r="AC17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD17" s="65" t="str">
+      <c r="AD17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AE17" s="65" t="str">
+      <c r="AE17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AF17" s="65" t="str">
+      <c r="AF17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AG17" s="65" t="str">
+      <c r="AG17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH17" s="65" t="str">
+      <c r="AH17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AI17" s="65" t="str">
+      <c r="AI17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ17" s="65" t="str">
+      <c r="AJ17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AK17" s="65" t="str">
+      <c r="AK17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AL17" s="65" t="str">
+      <c r="AL17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AM17" s="65" t="str">
+      <c r="AM17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AN17" s="65" t="str">
+      <c r="AN17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AO17" s="65" t="str">
+      <c r="AO17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AP17" s="65" t="str">
+      <c r="AP17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ17" s="65" t="str">
+      <c r="AQ17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AR17" s="65" t="str">
+      <c r="AR17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AS17" s="65" t="str">
+      <c r="AS17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AT17" s="65" t="str">
+      <c r="AT17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AU17" s="65" t="str">
+      <c r="AU17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AV17" s="65" t="str">
+      <c r="AV17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AW17" s="65" t="str">
+      <c r="AW17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AX17" s="65" t="str">
+      <c r="AX17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AY17" s="65" t="str">
+      <c r="AY17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ17" s="65" t="str">
+      <c r="AZ17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BA17" s="65" t="str">
+      <c r="BA17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BB17" s="65" t="str">
+      <c r="BB17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BC17" s="65" t="str">
+      <c r="BC17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BD17" s="65" t="str">
+      <c r="BD17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BE17" s="65" t="str">
+      <c r="BE17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BF17" s="65" t="str">
+      <c r="BF17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BG17" s="65" t="str">
+      <c r="BG17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BH17" s="65" t="str">
+      <c r="BH17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BI17" s="65" t="str">
+      <c r="BI17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ17" s="65" t="str">
+      <c r="BJ17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BK17" s="65" t="str">
+      <c r="BK17" s="59" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
@@ -6301,13 +6301,13 @@
         <v>38</v>
       </c>
       <c r="D22" s="19">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E22" s="20">
         <v>44256</v>
       </c>
       <c r="F22" s="39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="23"/>

--- a/lycee_java/project/Gantt.xlsx
+++ b/lycee_java/project/Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5FD899-ACF5-4A49-8A69-0BA89BF1F47B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07F107E-3992-416F-AD9A-6656FA159ACD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -180,9 +180,6 @@
   </si>
   <si>
     <t>Gestion des absences et retard des étudiants AVEC FORMULAIRE</t>
-  </si>
-  <si>
-    <t>QUENTIN / LOIC</t>
   </si>
   <si>
     <t>Rédation documentation développeur</t>
@@ -2870,7 +2867,7 @@
   <dimension ref="A1:BK29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="74" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5271,7 +5268,7 @@
     <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="9"/>
       <c r="B15" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>38</v>
@@ -6070,7 +6067,7 @@
         <v>35</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D19" s="19">
         <v>0.5</v>
@@ -6148,7 +6145,7 @@
         <v>40</v>
       </c>
       <c r="D20" s="19">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E20" s="20">
         <v>44235</v>
@@ -6226,7 +6223,7 @@
         <v>40</v>
       </c>
       <c r="D21" s="19">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E21" s="20">
         <v>44228</v>
@@ -6295,7 +6292,7 @@
     <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="9"/>
       <c r="B22" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>38</v>
@@ -6445,10 +6442,10 @@
     <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="9"/>
       <c r="B24" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="19">
         <v>1</v>
@@ -6520,13 +6517,13 @@
     <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="9"/>
       <c r="B25" s="52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="19">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E25" s="20">
         <v>44242</v>
@@ -6595,13 +6592,13 @@
     <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="9"/>
       <c r="B26" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="19">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E26" s="20">
         <v>44256</v>
@@ -6670,7 +6667,7 @@
     <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="9"/>
       <c r="B27" s="52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>25</v>
@@ -6745,11 +6742,13 @@
     <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="9"/>
       <c r="B28" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="22"/>
+        <v>48</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="D28" s="19">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="39">
@@ -6816,7 +6815,7 @@
     <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="9"/>
       <c r="B29" s="52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="19">

--- a/lycee_java/project/Gantt.xlsx
+++ b/lycee_java/project/Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07F107E-3992-416F-AD9A-6656FA159ACD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5185421E-8AF2-42AD-920C-D1F4A9FD867B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2867,7 +2867,7 @@
   <dimension ref="A1:BK29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="74" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6145,7 +6145,7 @@
         <v>40</v>
       </c>
       <c r="D20" s="19">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E20" s="20">
         <v>44235</v>
@@ -6223,7 +6223,7 @@
         <v>40</v>
       </c>
       <c r="D21" s="19">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E21" s="20">
         <v>44228</v>

--- a/lycee_java/project/Gantt.xlsx
+++ b/lycee_java/project/Gantt.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5185421E-8AF2-42AD-920C-D1F4A9FD867B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="20720" windowHeight="13280" tabRatio="415"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <definedName name="Incrément_Défilement">Gantt!$E$3</definedName>
     <definedName name="Marqueur_Jalon">Gantt!$E$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -212,7 +211,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1216,7 +1215,7 @@
     <cellStyle name="Avertissement" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Date" xfId="9"/>
     <cellStyle name="Entrée" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="16" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1238,7 +1237,7 @@
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="25" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
   <dxfs count="69">
     <dxf>
@@ -2418,12 +2417,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3">
       <tableStyleElement type="wholeTable" dxfId="68"/>
       <tableStyleElement type="headerRow" dxfId="67"/>
       <tableStyleElement type="firstRowStripe" dxfId="66"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="ToDoList" pivot="0" count="9">
       <tableStyleElement type="wholeTable" dxfId="65"/>
       <tableStyleElement type="headerRow" dxfId="64"/>
       <tableStyleElement type="totalRow" dxfId="63"/>
@@ -2527,11 +2526,11 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>33338</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>185738</xdr:colOff>
+          <xdr:colOff>184150</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -2574,8 +2573,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F24" totalsRowShown="0">
-  <autoFilter ref="B6:F24" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F24" totalsRowShown="0">
+  <autoFilter ref="B6:F24">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2583,11 +2582,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
+    <tableColumn id="1" name="Description du jalon" dataDxfId="0"/>
+    <tableColumn id="3" name="Affecté à"/>
+    <tableColumn id="4" name="Avancement"/>
+    <tableColumn id="5" name="Début"/>
+    <tableColumn id="6" name="Nombre de jours"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -2860,30 +2859,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="74" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="26.73046875" customWidth="1"/>
-    <col min="3" max="3" width="20.53125" customWidth="1"/>
-    <col min="4" max="4" width="12.796875" customWidth="1"/>
-    <col min="5" max="5" width="10.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="2.73046875" customWidth="1"/>
-    <col min="8" max="63" width="3.53125" customWidth="1"/>
-    <col min="68" max="69" width="10.265625"/>
+    <col min="7" max="7" width="2.7265625" customWidth="1"/>
+    <col min="8" max="63" width="3.54296875" customWidth="1"/>
+    <col min="68" max="69" width="10.26953125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="50.25" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:63" ht="50.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2896,7 +2895,7 @@
       <c r="I1" s="14"/>
       <c r="AF1" s="14"/>
     </row>
-    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -2918,7 +2917,7 @@
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
     </row>
-    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -2939,7 +2938,7 @@
       <c r="L3" s="38"/>
       <c r="M3" s="37"/>
     </row>
-    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -3036,7 +3035,7 @@
       <c r="BJ4" s="13"/>
       <c r="BK4" s="13"/>
     </row>
-    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
@@ -3267,7 +3266,7 @@
         <v>44272</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:63" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
@@ -3512,7 +3511,7 @@
         <v>m</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -3578,7 +3577,7 @@
       <c r="BJ7" s="32"/>
       <c r="BK7" s="32"/>
     </row>
-    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
@@ -3815,7 +3814,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="48" t="s">
         <v>30</v>
@@ -4058,7 +4057,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="48" t="s">
         <v>20</v>
@@ -4301,7 +4300,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="48" t="s">
         <v>31</v>
@@ -4544,7 +4543,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="48" t="s">
         <v>21</v>
@@ -4787,7 +4786,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="50" t="s">
         <v>32</v>
@@ -5022,7 +5021,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="48" t="s">
         <v>22</v>
@@ -5265,7 +5264,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="47" t="s">
         <v>43</v>
@@ -5508,7 +5507,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="47" t="s">
         <v>23</v>
@@ -5751,7 +5750,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:63" s="60" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:63" s="60" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="53"/>
       <c r="B17" s="61" t="s">
         <v>33</v>
@@ -5986,7 +5985,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="47" t="s">
         <v>34</v>
@@ -6061,7 +6060,7 @@
       <c r="BJ18" s="23"/>
       <c r="BK18" s="23"/>
     </row>
-    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="46" t="s">
         <v>35</v>
@@ -6136,7 +6135,7 @@
       <c r="BJ19" s="23"/>
       <c r="BK19" s="23"/>
     </row>
-    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="45" t="s">
         <v>41</v>
@@ -6214,7 +6213,7 @@
       <c r="BJ20" s="23"/>
       <c r="BK20" s="23"/>
     </row>
-    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="45" t="s">
         <v>36</v>
@@ -6289,7 +6288,7 @@
       <c r="BJ21" s="23"/>
       <c r="BK21" s="23"/>
     </row>
-    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="45" t="s">
         <v>42</v>
@@ -6364,7 +6363,7 @@
       <c r="BJ22" s="23"/>
       <c r="BK22" s="23"/>
     </row>
-    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="47" t="s">
         <v>26</v>
@@ -6373,7 +6372,7 @@
         <v>39</v>
       </c>
       <c r="D23" s="19">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="E23" s="20">
         <v>44249</v>
@@ -6439,7 +6438,7 @@
       <c r="BJ23" s="23"/>
       <c r="BK23" s="23"/>
     </row>
-    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="45" t="s">
         <v>44</v>
@@ -6514,7 +6513,7 @@
       <c r="BJ24" s="23"/>
       <c r="BK24" s="23"/>
     </row>
-    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="52" t="s">
         <v>45</v>
@@ -6589,7 +6588,7 @@
       <c r="BJ25" s="23"/>
       <c r="BK25" s="23"/>
     </row>
-    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="52" t="s">
         <v>46</v>
@@ -6664,7 +6663,7 @@
       <c r="BJ26" s="23"/>
       <c r="BK26" s="23"/>
     </row>
-    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="52" t="s">
         <v>47</v>
@@ -6739,7 +6738,7 @@
       <c r="BJ27" s="23"/>
       <c r="BK27" s="23"/>
     </row>
-    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="52" t="s">
         <v>48</v>
@@ -6812,7 +6811,7 @@
       <c r="BJ28" s="23"/>
       <c r="BK28" s="23"/>
     </row>
-    <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="52" t="s">
         <v>49</v>
@@ -7269,7 +7268,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -7293,11 +7292,11 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>33338</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>185738</xdr:colOff>
+                    <xdr:colOff>184150</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>342900</xdr:rowOff>
                   </to>
@@ -7579,35 +7578,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.19921875" style="7" customWidth="1"/>
-    <col min="2" max="16384" width="9.19921875" style="5"/>
+    <col min="1" max="1" width="87.1796875" style="7" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="7" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" s="7" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>19</v>
       </c>

--- a/lycee_java/project/Gantt.xlsx
+++ b/lycee_java/project/Gantt.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A83390-9EDE-4E61-86A1-FF38E496FA63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="20720" windowHeight="13280" tabRatio="415"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <definedName name="Incrément_Défilement">Gantt!$E$3</definedName>
     <definedName name="Marqueur_Jalon">Gantt!$E$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -202,16 +203,16 @@
     <t>Ajout de professeurs et d’administrateurs</t>
   </si>
   <si>
-    <t>Rédaction de la documentation</t>
+    <t>TOUS</t>
   </si>
   <si>
-    <t>TOUS</t>
+    <t>Design</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1215,7 +1216,7 @@
     <cellStyle name="Avertissement" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9"/>
+    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Entrée" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="16" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1237,7 +1238,7 @@
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="25" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3"/>
+    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="69">
     <dxf>
@@ -2417,12 +2418,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="68"/>
       <tableStyleElement type="headerRow" dxfId="67"/>
       <tableStyleElement type="firstRowStripe" dxfId="66"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9">
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="65"/>
       <tableStyleElement type="headerRow" dxfId="64"/>
       <tableStyleElement type="totalRow" dxfId="63"/>
@@ -2514,7 +2515,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="17"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="40"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2526,11 +2527,11 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>184150</xdr:colOff>
+          <xdr:colOff>185738</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -2573,8 +2574,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F24" totalsRowShown="0">
-  <autoFilter ref="B6:F24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F24" totalsRowShown="0">
+  <autoFilter ref="B6:F24" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2582,11 +2583,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Description du jalon" dataDxfId="0"/>
-    <tableColumn id="3" name="Affecté à"/>
-    <tableColumn id="4" name="Avancement"/>
-    <tableColumn id="5" name="Début"/>
-    <tableColumn id="6" name="Nombre de jours"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -2859,30 +2860,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="74" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="74" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="26.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="26.73046875" customWidth="1"/>
+    <col min="3" max="3" width="20.53125" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" customWidth="1"/>
+    <col min="5" max="5" width="10.46484375" style="3" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="2.7265625" customWidth="1"/>
-    <col min="8" max="63" width="3.54296875" customWidth="1"/>
-    <col min="68" max="69" width="10.26953125"/>
+    <col min="7" max="7" width="2.73046875" customWidth="1"/>
+    <col min="8" max="63" width="3.53125" customWidth="1"/>
+    <col min="68" max="69" width="10.265625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="50.25" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:63" ht="50.25" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2895,7 +2896,7 @@
       <c r="I1" s="14"/>
       <c r="AF1" s="14"/>
     </row>
-    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -2917,7 +2918,7 @@
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
     </row>
-    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -2929,7 +2930,7 @@
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="30">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H3" s="37"/>
       <c r="I3" s="38"/>
@@ -2938,7 +2939,7 @@
       <c r="L3" s="38"/>
       <c r="M3" s="37"/>
     </row>
-    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -2956,7 +2957,7 @@
       </c>
       <c r="H4" s="13" t="str">
         <f ca="1">TEXT(H5,"mmmm")</f>
-        <v>janvier</v>
+        <v>février</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -2976,7 +2977,7 @@
       <c r="U4" s="13"/>
       <c r="V4" s="13" t="str">
         <f ca="1">IF(OR(TEXT(V5,"mmmm")=O4,TEXT(V5,"mmmm")=H4),"",TEXT(V5,"mmmm"))</f>
-        <v>février</v>
+        <v/>
       </c>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
@@ -2986,7 +2987,7 @@
       <c r="AB4" s="13"/>
       <c r="AC4" s="13" t="str">
         <f ca="1">IF(OR(TEXT(AC5,"mmmm")=V4,TEXT(AC5,"mmmm")=O4,TEXT(AC5,"mmmm")=H4),"",TEXT(AC5,"mmmm"))</f>
-        <v/>
+        <v>mars</v>
       </c>
       <c r="AD4" s="13"/>
       <c r="AE4" s="13"/>
@@ -3016,7 +3017,7 @@
       <c r="AW4" s="13"/>
       <c r="AX4" s="13" t="str">
         <f ca="1">IF(OR(TEXT(AX5,"mmmm")=AQ4,TEXT(AX5,"mmmm")=AJ4,TEXT(AX5,"mmmm")=AC4,TEXT(AX5,"mmmm")=V4),"",TEXT(AX5,"mmmm"))</f>
-        <v>mars</v>
+        <v/>
       </c>
       <c r="AY4" s="13"/>
       <c r="AZ4" s="13"/>
@@ -3026,7 +3027,7 @@
       <c r="BD4" s="13"/>
       <c r="BE4" s="13" t="str">
         <f ca="1">IF(OR(TEXT(BE5,"mmmm")=AX4,TEXT(BE5,"mmmm")=AQ4,TEXT(BE5,"mmmm")=AJ4,TEXT(BE5,"mmmm")=AC4),"",TEXT(BE5,"mmmm"))</f>
-        <v/>
+        <v>avril</v>
       </c>
       <c r="BF4" s="13"/>
       <c r="BG4" s="13"/>
@@ -3035,7 +3036,7 @@
       <c r="BJ4" s="13"/>
       <c r="BK4" s="13"/>
     </row>
-    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
@@ -3043,230 +3044,230 @@
       <c r="G5" s="26"/>
       <c r="H5" s="40">
         <f ca="1">IFERROR(Début_Projet+Incrément_Défilement,TODAY())</f>
-        <v>44217</v>
+        <v>44240</v>
       </c>
       <c r="I5" s="41">
         <f ca="1">H5+1</f>
-        <v>44218</v>
+        <v>44241</v>
       </c>
       <c r="J5" s="42">
         <f t="shared" ref="J5:AW5" ca="1" si="0">I5+1</f>
-        <v>44219</v>
+        <v>44242</v>
       </c>
       <c r="K5" s="42">
         <f ca="1">J5+1</f>
-        <v>44220</v>
+        <v>44243</v>
       </c>
       <c r="L5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44221</v>
+        <v>44244</v>
       </c>
       <c r="M5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44222</v>
+        <v>44245</v>
       </c>
       <c r="N5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44223</v>
+        <v>44246</v>
       </c>
       <c r="O5" s="42">
         <f ca="1">N5+1</f>
-        <v>44224</v>
+        <v>44247</v>
       </c>
       <c r="P5" s="42">
         <f ca="1">O5+1</f>
-        <v>44225</v>
+        <v>44248</v>
       </c>
       <c r="Q5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44226</v>
+        <v>44249</v>
       </c>
       <c r="R5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44227</v>
+        <v>44250</v>
       </c>
       <c r="S5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44228</v>
+        <v>44251</v>
       </c>
       <c r="T5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44229</v>
+        <v>44252</v>
       </c>
       <c r="U5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44230</v>
+        <v>44253</v>
       </c>
       <c r="V5" s="42">
         <f ca="1">U5+1</f>
-        <v>44231</v>
+        <v>44254</v>
       </c>
       <c r="W5" s="42">
         <f ca="1">V5+1</f>
-        <v>44232</v>
+        <v>44255</v>
       </c>
       <c r="X5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44233</v>
+        <v>44256</v>
       </c>
       <c r="Y5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44234</v>
+        <v>44257</v>
       </c>
       <c r="Z5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44235</v>
+        <v>44258</v>
       </c>
       <c r="AA5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44236</v>
+        <v>44259</v>
       </c>
       <c r="AB5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44237</v>
+        <v>44260</v>
       </c>
       <c r="AC5" s="42">
         <f ca="1">AB5+1</f>
-        <v>44238</v>
+        <v>44261</v>
       </c>
       <c r="AD5" s="42">
         <f ca="1">AC5+1</f>
-        <v>44239</v>
+        <v>44262</v>
       </c>
       <c r="AE5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44240</v>
+        <v>44263</v>
       </c>
       <c r="AF5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44241</v>
+        <v>44264</v>
       </c>
       <c r="AG5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44242</v>
+        <v>44265</v>
       </c>
       <c r="AH5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44243</v>
+        <v>44266</v>
       </c>
       <c r="AI5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44244</v>
+        <v>44267</v>
       </c>
       <c r="AJ5" s="42">
         <f ca="1">AI5+1</f>
-        <v>44245</v>
+        <v>44268</v>
       </c>
       <c r="AK5" s="42">
         <f ca="1">AJ5+1</f>
-        <v>44246</v>
+        <v>44269</v>
       </c>
       <c r="AL5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44247</v>
+        <v>44270</v>
       </c>
       <c r="AM5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44248</v>
+        <v>44271</v>
       </c>
       <c r="AN5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44249</v>
+        <v>44272</v>
       </c>
       <c r="AO5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44250</v>
+        <v>44273</v>
       </c>
       <c r="AP5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44251</v>
+        <v>44274</v>
       </c>
       <c r="AQ5" s="42">
         <f ca="1">AP5+1</f>
-        <v>44252</v>
+        <v>44275</v>
       </c>
       <c r="AR5" s="42">
         <f ca="1">AQ5+1</f>
-        <v>44253</v>
+        <v>44276</v>
       </c>
       <c r="AS5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44254</v>
+        <v>44277</v>
       </c>
       <c r="AT5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44255</v>
+        <v>44278</v>
       </c>
       <c r="AU5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44256</v>
+        <v>44279</v>
       </c>
       <c r="AV5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44257</v>
+        <v>44280</v>
       </c>
       <c r="AW5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>44258</v>
+        <v>44281</v>
       </c>
       <c r="AX5" s="42">
         <f ca="1">AW5+1</f>
-        <v>44259</v>
+        <v>44282</v>
       </c>
       <c r="AY5" s="42">
         <f ca="1">AX5+1</f>
-        <v>44260</v>
+        <v>44283</v>
       </c>
       <c r="AZ5" s="42">
         <f t="shared" ref="AZ5:BD5" ca="1" si="1">AY5+1</f>
-        <v>44261</v>
+        <v>44284</v>
       </c>
       <c r="BA5" s="42">
         <f t="shared" ca="1" si="1"/>
-        <v>44262</v>
+        <v>44285</v>
       </c>
       <c r="BB5" s="42">
         <f t="shared" ca="1" si="1"/>
-        <v>44263</v>
+        <v>44286</v>
       </c>
       <c r="BC5" s="42">
         <f t="shared" ca="1" si="1"/>
-        <v>44264</v>
+        <v>44287</v>
       </c>
       <c r="BD5" s="42">
         <f t="shared" ca="1" si="1"/>
-        <v>44265</v>
+        <v>44288</v>
       </c>
       <c r="BE5" s="42">
         <f ca="1">BD5+1</f>
-        <v>44266</v>
+        <v>44289</v>
       </c>
       <c r="BF5" s="42">
         <f ca="1">BE5+1</f>
-        <v>44267</v>
+        <v>44290</v>
       </c>
       <c r="BG5" s="42">
         <f t="shared" ref="BG5:BK5" ca="1" si="2">BF5+1</f>
-        <v>44268</v>
+        <v>44291</v>
       </c>
       <c r="BH5" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>44269</v>
+        <v>44292</v>
       </c>
       <c r="BI5" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>44270</v>
+        <v>44293</v>
       </c>
       <c r="BJ5" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>44271</v>
+        <v>44294</v>
       </c>
       <c r="BK5" s="43">
         <f t="shared" ca="1" si="2"/>
-        <v>44272</v>
+        <v>44295</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:63" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
@@ -3288,230 +3289,230 @@
       <c r="G6" s="16"/>
       <c r="H6" s="33" t="str">
         <f t="shared" ref="H6:AM6" ca="1" si="3">LEFT(TEXT(H5,"jjj"),1)</f>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="I6" s="34" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="J6" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="K6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="L6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="M6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="N6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="O6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="P6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="Q6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="R6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="S6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="T6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="U6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="V6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="W6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="X6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="Y6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="Z6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="AA6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AB6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AC6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="AD6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="AE6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="AF6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AG6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="AH6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AI6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AJ6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="AK6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="AL6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="AM6" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AN6" s="35" t="str">
         <f t="shared" ref="AN6:BK6" ca="1" si="4">LEFT(TEXT(AN5,"jjj"),1)</f>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="AO6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AP6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AQ6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="AR6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="AS6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="AT6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AU6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="AV6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AW6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AX6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="AY6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="AZ6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="BA6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="BB6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="BC6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="BD6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="BE6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="BF6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="BG6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="BH6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="BI6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="BJ6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="BK6" s="35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>v</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -3577,7 +3578,7 @@
       <c r="BJ7" s="32"/>
       <c r="BK7" s="32"/>
     </row>
-    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
@@ -3814,7 +3815,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
       <c r="B9" s="48" t="s">
         <v>30</v>
@@ -4057,7 +4058,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="10"/>
       <c r="B10" s="48" t="s">
         <v>20</v>
@@ -4300,7 +4301,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="9"/>
       <c r="B11" s="48" t="s">
         <v>31</v>
@@ -4543,7 +4544,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="9"/>
       <c r="B12" s="48" t="s">
         <v>21</v>
@@ -4786,7 +4787,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="10"/>
       <c r="B13" s="50" t="s">
         <v>32</v>
@@ -5021,7 +5022,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="10"/>
       <c r="B14" s="48" t="s">
         <v>22</v>
@@ -5264,7 +5265,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="9"/>
       <c r="B15" s="47" t="s">
         <v>43</v>
@@ -5507,7 +5508,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="9"/>
       <c r="B16" s="47" t="s">
         <v>23</v>
@@ -5750,7 +5751,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:63" s="60" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:63" s="60" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="53"/>
       <c r="B17" s="61" t="s">
         <v>33</v>
@@ -5985,7 +5986,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="9"/>
       <c r="B18" s="47" t="s">
         <v>34</v>
@@ -6060,7 +6061,7 @@
       <c r="BJ18" s="23"/>
       <c r="BK18" s="23"/>
     </row>
-    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="9"/>
       <c r="B19" s="46" t="s">
         <v>35</v>
@@ -6069,13 +6070,13 @@
         <v>25</v>
       </c>
       <c r="D19" s="19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E19" s="20">
         <v>44228</v>
       </c>
       <c r="F19" s="39">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="23"/>
@@ -6135,7 +6136,7 @@
       <c r="BJ19" s="23"/>
       <c r="BK19" s="23"/>
     </row>
-    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="9"/>
       <c r="B20" s="45" t="s">
         <v>41</v>
@@ -6144,13 +6145,13 @@
         <v>40</v>
       </c>
       <c r="D20" s="19">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E20" s="20">
         <v>44235</v>
       </c>
       <c r="F20" s="39">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="23"/>
@@ -6213,7 +6214,7 @@
       <c r="BJ20" s="23"/>
       <c r="BK20" s="23"/>
     </row>
-    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="9"/>
       <c r="B21" s="45" t="s">
         <v>36</v>
@@ -6222,13 +6223,13 @@
         <v>40</v>
       </c>
       <c r="D21" s="19">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E21" s="20">
         <v>44228</v>
       </c>
       <c r="F21" s="39">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="23"/>
@@ -6288,7 +6289,7 @@
       <c r="BJ21" s="23"/>
       <c r="BK21" s="23"/>
     </row>
-    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="9"/>
       <c r="B22" s="45" t="s">
         <v>42</v>
@@ -6363,7 +6364,7 @@
       <c r="BJ22" s="23"/>
       <c r="BK22" s="23"/>
     </row>
-    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="9"/>
       <c r="B23" s="47" t="s">
         <v>26</v>
@@ -6438,13 +6439,13 @@
       <c r="BJ23" s="23"/>
       <c r="BK23" s="23"/>
     </row>
-    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="9"/>
       <c r="B24" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="19">
         <v>1</v>
@@ -6513,7 +6514,7 @@
       <c r="BJ24" s="23"/>
       <c r="BK24" s="23"/>
     </row>
-    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="9"/>
       <c r="B25" s="52" t="s">
         <v>45</v>
@@ -6522,7 +6523,7 @@
         <v>38</v>
       </c>
       <c r="D25" s="19">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E25" s="20">
         <v>44242</v>
@@ -6588,7 +6589,7 @@
       <c r="BJ25" s="23"/>
       <c r="BK25" s="23"/>
     </row>
-    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="9"/>
       <c r="B26" s="52" t="s">
         <v>46</v>
@@ -6663,7 +6664,7 @@
       <c r="BJ26" s="23"/>
       <c r="BK26" s="23"/>
     </row>
-    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="9"/>
       <c r="B27" s="52" t="s">
         <v>47</v>
@@ -6738,7 +6739,7 @@
       <c r="BJ27" s="23"/>
       <c r="BK27" s="23"/>
     </row>
-    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="9"/>
       <c r="B28" s="52" t="s">
         <v>48</v>
@@ -6747,11 +6748,13 @@
         <v>37</v>
       </c>
       <c r="D28" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="E28" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="20">
+        <v>44263</v>
+      </c>
       <c r="F28" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="23"/>
@@ -6811,18 +6814,22 @@
       <c r="BJ28" s="23"/>
       <c r="BK28" s="23"/>
     </row>
-    <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="9"/>
       <c r="B29" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="22"/>
+        <v>50</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="D29" s="19">
-        <v>0</v>
-      </c>
-      <c r="E29" s="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="E29" s="20">
+        <v>44270</v>
+      </c>
       <c r="F29" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="23"/>
@@ -7268,7 +7275,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -7292,11 +7299,11 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>184150</xdr:colOff>
+                    <xdr:colOff>185738</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>342900</xdr:rowOff>
                   </to>
@@ -7578,35 +7585,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="87.1796875" style="7" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="5"/>
+    <col min="1" max="1" width="87.19921875" style="7" customWidth="1"/>
+    <col min="2" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="145" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="7" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" s="7" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>19</v>
       </c>

--- a/lycee_java/project/Gantt.xlsx
+++ b/lycee_java/project/Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A83390-9EDE-4E61-86A1-FF38E496FA63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4924452-B08B-4944-BAF4-75A594B923A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,9 +182,6 @@
     <t>Gestion des absences et retard des étudiants AVEC FORMULAIRE</t>
   </si>
   <si>
-    <t>Rédation documentation développeur</t>
-  </si>
-  <si>
     <t>Création du service de connexion</t>
   </si>
   <si>
@@ -207,6 +204,9 @@
   </si>
   <si>
     <t>Design</t>
+  </si>
+  <si>
+    <t>Rédaction documentation développeur</t>
   </si>
 </sst>
 </file>
@@ -2866,8 +2866,8 @@
   </sheetPr>
   <dimension ref="A1:BK29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="74" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="74" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5268,7 +5268,7 @@
     <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="9"/>
       <c r="B15" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>38</v>
@@ -6292,7 +6292,7 @@
     <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="9"/>
       <c r="B22" s="45" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>38</v>
@@ -6442,10 +6442,10 @@
     <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="9"/>
       <c r="B24" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="19">
         <v>1</v>
@@ -6517,7 +6517,7 @@
     <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="9"/>
       <c r="B25" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>38</v>
@@ -6592,7 +6592,7 @@
     <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="9"/>
       <c r="B26" s="52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>25</v>
@@ -6667,7 +6667,7 @@
     <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="9"/>
       <c r="B27" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>25</v>
@@ -6742,7 +6742,7 @@
     <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="9"/>
       <c r="B28" s="52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>37</v>
@@ -6817,19 +6817,19 @@
     <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="9"/>
       <c r="B29" s="52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="19">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E29" s="20">
         <v>44270</v>
       </c>
       <c r="F29" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="23"/>

--- a/lycee_java/project/Gantt.xlsx
+++ b/lycee_java/project/Gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4924452-B08B-4944-BAF4-75A594B923A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B377AA-7735-4B28-B110-709C81D18C65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -2527,11 +2527,11 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>33338</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>185738</xdr:colOff>
+          <xdr:colOff>190500</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -2867,23 +2867,23 @@
   <dimension ref="A1:BK29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="74" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="26.73046875" customWidth="1"/>
-    <col min="3" max="3" width="20.53125" customWidth="1"/>
-    <col min="4" max="4" width="12.796875" customWidth="1"/>
-    <col min="5" max="5" width="10.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="2.73046875" customWidth="1"/>
-    <col min="8" max="63" width="3.53125" customWidth="1"/>
-    <col min="68" max="69" width="10.265625"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="63" width="3.5703125" customWidth="1"/>
+    <col min="68" max="69" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="50.25" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:63" ht="50.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2896,7 +2896,7 @@
       <c r="I1" s="14"/>
       <c r="AF1" s="14"/>
     </row>
-    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -2918,7 +2918,7 @@
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
     </row>
-    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -2939,7 +2939,7 @@
       <c r="L3" s="38"/>
       <c r="M3" s="37"/>
     </row>
-    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -3036,7 +3036,7 @@
       <c r="BJ4" s="13"/>
       <c r="BK4" s="13"/>
     </row>
-    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>44295</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:63" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>v</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -3578,7 +3578,7 @@
       <c r="BJ7" s="32"/>
       <c r="BK7" s="32"/>
     </row>
-    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="48" t="s">
         <v>30</v>
@@ -4058,7 +4058,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="48" t="s">
         <v>20</v>
@@ -4301,7 +4301,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="48" t="s">
         <v>31</v>
@@ -4544,7 +4544,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="48" t="s">
         <v>21</v>
@@ -4787,7 +4787,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="50" t="s">
         <v>32</v>
@@ -5022,7 +5022,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="48" t="s">
         <v>22</v>
@@ -5265,7 +5265,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="47" t="s">
         <v>42</v>
@@ -5508,7 +5508,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="47" t="s">
         <v>23</v>
@@ -5751,7 +5751,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:63" s="60" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:63" s="60" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53"/>
       <c r="B17" s="61" t="s">
         <v>33</v>
@@ -5986,7 +5986,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="47" t="s">
         <v>34</v>
@@ -6061,7 +6061,7 @@
       <c r="BJ18" s="23"/>
       <c r="BK18" s="23"/>
     </row>
-    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="46" t="s">
         <v>35</v>
@@ -6136,7 +6136,7 @@
       <c r="BJ19" s="23"/>
       <c r="BK19" s="23"/>
     </row>
-    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="45" t="s">
         <v>41</v>
@@ -6214,7 +6214,7 @@
       <c r="BJ20" s="23"/>
       <c r="BK20" s="23"/>
     </row>
-    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="45" t="s">
         <v>36</v>
@@ -6289,16 +6289,16 @@
       <c r="BJ21" s="23"/>
       <c r="BK21" s="23"/>
     </row>
-    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="45" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="19">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E22" s="20">
         <v>44256</v>
@@ -6364,7 +6364,7 @@
       <c r="BJ22" s="23"/>
       <c r="BK22" s="23"/>
     </row>
-    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="47" t="s">
         <v>26</v>
@@ -6439,7 +6439,7 @@
       <c r="BJ23" s="23"/>
       <c r="BK23" s="23"/>
     </row>
-    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="45" t="s">
         <v>43</v>
@@ -6514,7 +6514,7 @@
       <c r="BJ24" s="23"/>
       <c r="BK24" s="23"/>
     </row>
-    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="52" t="s">
         <v>44</v>
@@ -6589,7 +6589,7 @@
       <c r="BJ25" s="23"/>
       <c r="BK25" s="23"/>
     </row>
-    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="52" t="s">
         <v>45</v>
@@ -6664,7 +6664,7 @@
       <c r="BJ26" s="23"/>
       <c r="BK26" s="23"/>
     </row>
-    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="52" t="s">
         <v>46</v>
@@ -6739,7 +6739,7 @@
       <c r="BJ27" s="23"/>
       <c r="BK27" s="23"/>
     </row>
-    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="52" t="s">
         <v>47</v>
@@ -6814,7 +6814,7 @@
       <c r="BJ28" s="23"/>
       <c r="BK28" s="23"/>
     </row>
-    <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="52" t="s">
         <v>49</v>
@@ -7299,11 +7299,11 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>33338</xdr:rowOff>
+                    <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>185738</xdr:colOff>
+                    <xdr:colOff>190500</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>342900</xdr:rowOff>
                   </to>
@@ -7592,28 +7592,28 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.19921875" style="7" customWidth="1"/>
-    <col min="2" max="16384" width="9.19921875" style="5"/>
+    <col min="1" max="1" width="87.140625" style="7" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="7" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" s="7" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
